--- a/0126/個人目標-スキルチェック.xlsx
+++ b/0126/個人目標-スキルチェック.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n_yamamoto\Desktop\スキルチェック_20250214\問題\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyama\Desktop\スキルチェック\skillcheck\0126\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8A87DD-DDBF-492E-A47B-EB97CFDE5DE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3005F7C-9362-4A85-9BCF-F46E2072BDFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="2" r:id="rId1"/>
@@ -2084,32 +2084,14 @@
     <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2118,6 +2100,15 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2129,14 +2120,14 @@
     <xf numFmtId="49" fontId="11" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -2147,23 +2138,14 @@
     <xf numFmtId="49" fontId="11" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2182,6 +2164,24 @@
     </xf>
     <xf numFmtId="49" fontId="11" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -8997,24 +8997,24 @@
   </sheetPr>
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.1328125" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.08984375" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="3.1328125" style="1"/>
+    <col min="1" max="16384" width="3.08984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="22.9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="19.899999999999999" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
@@ -9022,12 +9022,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D5" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C6" s="1" t="s">
         <v>1</v>
       </c>
@@ -9035,7 +9035,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>1</v>
       </c>
@@ -9043,7 +9043,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>1</v>
       </c>
@@ -9051,7 +9051,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D9" s="1" t="s">
         <v>1</v>
       </c>
@@ -9059,7 +9059,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D10" s="1" t="s">
         <v>1</v>
       </c>
@@ -9067,7 +9067,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D11" s="1" t="s">
         <v>1</v>
       </c>
@@ -9075,12 +9075,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="19.899999999999999" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="19.899999999999999" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="B14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>1</v>
@@ -9089,22 +9089,22 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="19.899999999999999" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="B15" s="4"/>
       <c r="D15" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="19.899999999999999" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="B16" s="4"/>
       <c r="D16" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="19.899999999999999" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" ht="20" x14ac:dyDescent="0.2">
       <c r="B17" s="4"/>
     </row>
-    <row r="18" spans="2:6" ht="19.899999999999999" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" ht="20" x14ac:dyDescent="0.2">
       <c r="B18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>1</v>
@@ -9113,22 +9113,22 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="19.899999999999999" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" ht="20" x14ac:dyDescent="0.2">
       <c r="B19" s="4"/>
       <c r="D19" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="19.899999999999999" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" ht="20" x14ac:dyDescent="0.2">
       <c r="B20" s="4"/>
       <c r="D20" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="19.899999999999999" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" ht="20" x14ac:dyDescent="0.2">
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>1</v>
       </c>
@@ -9136,17 +9136,17 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D23" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="19.899999999999999" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" ht="20" x14ac:dyDescent="0.2">
       <c r="B25" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>1</v>
       </c>
@@ -9154,12 +9154,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D27" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D28" s="1" t="s">
         <v>46</v>
       </c>
@@ -9167,12 +9167,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="2:6" ht="19.899999999999999" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6" ht="20" x14ac:dyDescent="0.2">
       <c r="B30" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>1</v>
       </c>
@@ -9180,12 +9180,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="33" spans="2:4" ht="19.899999999999999" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:4" ht="20" x14ac:dyDescent="0.2">
       <c r="B33" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>1</v>
       </c>
@@ -9193,7 +9193,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>1</v>
       </c>
@@ -9201,7 +9201,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C36" s="1" t="s">
         <v>1</v>
       </c>
@@ -9209,7 +9209,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C37" s="1" t="s">
         <v>1</v>
       </c>
@@ -9243,93 +9243,93 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16384" width="3" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="1" customFormat="1" ht="22.9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:43" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:43" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:43" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="43" t="s">
+    <row r="5" spans="1:43" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="40" t="s">
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="42"/>
-    </row>
-    <row r="6" spans="1:43" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="43" t="s">
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="36"/>
+    </row>
+    <row r="6" spans="1:43" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C6" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="40" t="s">
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="42"/>
-    </row>
-    <row r="7" spans="1:43" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="43" t="s">
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="36"/>
+    </row>
+    <row r="7" spans="1:43" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="40" t="s">
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="42"/>
-    </row>
-    <row r="9" spans="1:43" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="36"/>
+    </row>
+    <row r="9" spans="1:43" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
         <v>23</v>
       </c>
       <c r="X9" s="8"/>
     </row>
-    <row r="10" spans="1:43" s="1" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C10" s="7" t="s">
         <v>24</v>
       </c>
@@ -9338,158 +9338,158 @@
       </c>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="1:43" s="1" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:43" s="1" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C11" s="7"/>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="28" t="s">
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="28" t="s">
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="S11" s="29"/>
-      <c r="T11" s="29"/>
-      <c r="U11" s="29"/>
-      <c r="V11" s="29"/>
-      <c r="W11" s="29"/>
-      <c r="X11" s="30"/>
-      <c r="Y11" s="28" t="s">
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="15"/>
+      <c r="Y11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="Z11" s="29"/>
-      <c r="AA11" s="29"/>
-      <c r="AB11" s="29"/>
-      <c r="AC11" s="29"/>
-      <c r="AD11" s="29"/>
-      <c r="AE11" s="29"/>
-      <c r="AF11" s="29"/>
-      <c r="AG11" s="29"/>
-      <c r="AH11" s="29"/>
-      <c r="AI11" s="29"/>
-      <c r="AJ11" s="29"/>
-      <c r="AK11" s="29"/>
-      <c r="AL11" s="29"/>
-      <c r="AM11" s="29"/>
-      <c r="AN11" s="29"/>
-      <c r="AO11" s="29"/>
-      <c r="AP11" s="29"/>
-      <c r="AQ11" s="30"/>
-    </row>
-    <row r="12" spans="1:43" s="1" customFormat="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="Z11" s="14"/>
+      <c r="AA11" s="14"/>
+      <c r="AB11" s="14"/>
+      <c r="AC11" s="14"/>
+      <c r="AD11" s="14"/>
+      <c r="AE11" s="14"/>
+      <c r="AF11" s="14"/>
+      <c r="AG11" s="14"/>
+      <c r="AH11" s="14"/>
+      <c r="AI11" s="14"/>
+      <c r="AJ11" s="14"/>
+      <c r="AK11" s="14"/>
+      <c r="AL11" s="14"/>
+      <c r="AM11" s="14"/>
+      <c r="AN11" s="14"/>
+      <c r="AO11" s="14"/>
+      <c r="AP11" s="14"/>
+      <c r="AQ11" s="15"/>
+    </row>
+    <row r="12" spans="1:43" s="1" customFormat="1" ht="18.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="C12" s="7"/>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="31" t="s">
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="32"/>
-      <c r="O12" s="32"/>
-      <c r="P12" s="32"/>
-      <c r="Q12" s="33"/>
-      <c r="R12" s="31" t="s">
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="S12" s="32"/>
-      <c r="T12" s="32"/>
-      <c r="U12" s="32"/>
-      <c r="V12" s="32"/>
-      <c r="W12" s="32"/>
-      <c r="X12" s="33"/>
-      <c r="Y12" s="31" t="s">
+      <c r="S12" s="29"/>
+      <c r="T12" s="29"/>
+      <c r="U12" s="29"/>
+      <c r="V12" s="29"/>
+      <c r="W12" s="29"/>
+      <c r="X12" s="30"/>
+      <c r="Y12" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="Z12" s="32"/>
-      <c r="AA12" s="32"/>
-      <c r="AB12" s="32"/>
-      <c r="AC12" s="32"/>
-      <c r="AD12" s="32"/>
-      <c r="AE12" s="32"/>
-      <c r="AF12" s="32"/>
-      <c r="AG12" s="32"/>
-      <c r="AH12" s="32"/>
-      <c r="AI12" s="32"/>
-      <c r="AJ12" s="32"/>
-      <c r="AK12" s="32"/>
-      <c r="AL12" s="32"/>
-      <c r="AM12" s="32"/>
-      <c r="AN12" s="32"/>
-      <c r="AO12" s="32"/>
-      <c r="AP12" s="32"/>
-      <c r="AQ12" s="33"/>
-    </row>
-    <row r="13" spans="1:43" s="1" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.25">
-      <c r="D13" s="19" t="s">
+      <c r="Z12" s="29"/>
+      <c r="AA12" s="29"/>
+      <c r="AB12" s="29"/>
+      <c r="AC12" s="29"/>
+      <c r="AD12" s="29"/>
+      <c r="AE12" s="29"/>
+      <c r="AF12" s="29"/>
+      <c r="AG12" s="29"/>
+      <c r="AH12" s="29"/>
+      <c r="AI12" s="29"/>
+      <c r="AJ12" s="29"/>
+      <c r="AK12" s="29"/>
+      <c r="AL12" s="29"/>
+      <c r="AM12" s="29"/>
+      <c r="AN12" s="29"/>
+      <c r="AO12" s="29"/>
+      <c r="AP12" s="29"/>
+      <c r="AQ12" s="30"/>
+    </row>
+    <row r="13" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D13" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="19" t="s">
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="20"/>
-      <c r="T13" s="20"/>
-      <c r="U13" s="20"/>
-      <c r="V13" s="20"/>
-      <c r="W13" s="20"/>
-      <c r="X13" s="21"/>
-      <c r="Y13" s="19" t="s">
+      <c r="L13" s="32"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="32"/>
+      <c r="P13" s="32"/>
+      <c r="Q13" s="33"/>
+      <c r="R13" s="31"/>
+      <c r="S13" s="32"/>
+      <c r="T13" s="32"/>
+      <c r="U13" s="32"/>
+      <c r="V13" s="32"/>
+      <c r="W13" s="32"/>
+      <c r="X13" s="33"/>
+      <c r="Y13" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="Z13" s="20"/>
-      <c r="AA13" s="20"/>
-      <c r="AB13" s="20"/>
-      <c r="AC13" s="20"/>
-      <c r="AD13" s="20"/>
-      <c r="AE13" s="20"/>
-      <c r="AF13" s="20"/>
-      <c r="AG13" s="20"/>
-      <c r="AH13" s="20"/>
-      <c r="AI13" s="20"/>
-      <c r="AJ13" s="20"/>
-      <c r="AK13" s="20"/>
-      <c r="AL13" s="20"/>
-      <c r="AM13" s="20"/>
-      <c r="AN13" s="20"/>
-      <c r="AO13" s="20"/>
-      <c r="AP13" s="20"/>
-      <c r="AQ13" s="21"/>
-    </row>
-    <row r="14" spans="1:43" s="1" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:43" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z13" s="32"/>
+      <c r="AA13" s="32"/>
+      <c r="AB13" s="32"/>
+      <c r="AC13" s="32"/>
+      <c r="AD13" s="32"/>
+      <c r="AE13" s="32"/>
+      <c r="AF13" s="32"/>
+      <c r="AG13" s="32"/>
+      <c r="AH13" s="32"/>
+      <c r="AI13" s="32"/>
+      <c r="AJ13" s="32"/>
+      <c r="AK13" s="32"/>
+      <c r="AL13" s="32"/>
+      <c r="AM13" s="32"/>
+      <c r="AN13" s="32"/>
+      <c r="AO13" s="32"/>
+      <c r="AP13" s="32"/>
+      <c r="AQ13" s="33"/>
+    </row>
+    <row r="14" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:43" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="7" t="s">
         <v>24</v>
       </c>
@@ -9498,403 +9498,403 @@
       </c>
       <c r="X15" s="8"/>
     </row>
-    <row r="16" spans="1:43" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D16" s="28" t="s">
+    <row r="16" spans="1:43" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="28" t="s">
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="30"/>
-      <c r="R16" s="28" t="s">
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="S16" s="29"/>
-      <c r="T16" s="29"/>
-      <c r="U16" s="29"/>
-      <c r="V16" s="29"/>
-      <c r="W16" s="29"/>
-      <c r="X16" s="30"/>
-      <c r="Y16" s="28" t="s">
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="14"/>
+      <c r="X16" s="15"/>
+      <c r="Y16" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="Z16" s="29"/>
-      <c r="AA16" s="29"/>
-      <c r="AB16" s="29"/>
-      <c r="AC16" s="29"/>
-      <c r="AD16" s="29"/>
-      <c r="AE16" s="29"/>
-      <c r="AF16" s="29"/>
-      <c r="AG16" s="29"/>
-      <c r="AH16" s="29"/>
-      <c r="AI16" s="29"/>
-      <c r="AJ16" s="29"/>
-      <c r="AK16" s="29"/>
-      <c r="AL16" s="29"/>
-      <c r="AM16" s="29"/>
-      <c r="AN16" s="29"/>
-      <c r="AO16" s="29"/>
-      <c r="AP16" s="29"/>
-      <c r="AQ16" s="30"/>
-    </row>
-    <row r="17" spans="3:43" s="1" customFormat="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="Z16" s="14"/>
+      <c r="AA16" s="14"/>
+      <c r="AB16" s="14"/>
+      <c r="AC16" s="14"/>
+      <c r="AD16" s="14"/>
+      <c r="AE16" s="14"/>
+      <c r="AF16" s="14"/>
+      <c r="AG16" s="14"/>
+      <c r="AH16" s="14"/>
+      <c r="AI16" s="14"/>
+      <c r="AJ16" s="14"/>
+      <c r="AK16" s="14"/>
+      <c r="AL16" s="14"/>
+      <c r="AM16" s="14"/>
+      <c r="AN16" s="14"/>
+      <c r="AO16" s="14"/>
+      <c r="AP16" s="14"/>
+      <c r="AQ16" s="15"/>
+    </row>
+    <row r="17" spans="3:43" s="1" customFormat="1" ht="18.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="C17" s="7"/>
-      <c r="D17" s="31" t="s">
+      <c r="D17" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="31" t="s">
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="32"/>
-      <c r="P17" s="32"/>
-      <c r="Q17" s="33"/>
-      <c r="R17" s="31" t="s">
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="S17" s="32"/>
-      <c r="T17" s="32"/>
-      <c r="U17" s="32"/>
-      <c r="V17" s="32"/>
-      <c r="W17" s="32"/>
-      <c r="X17" s="33"/>
-      <c r="Y17" s="31" t="s">
+      <c r="S17" s="29"/>
+      <c r="T17" s="29"/>
+      <c r="U17" s="29"/>
+      <c r="V17" s="29"/>
+      <c r="W17" s="29"/>
+      <c r="X17" s="30"/>
+      <c r="Y17" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="Z17" s="32"/>
-      <c r="AA17" s="32"/>
-      <c r="AB17" s="32"/>
-      <c r="AC17" s="32"/>
-      <c r="AD17" s="32"/>
-      <c r="AE17" s="32"/>
-      <c r="AF17" s="32"/>
-      <c r="AG17" s="32"/>
-      <c r="AH17" s="32"/>
-      <c r="AI17" s="32"/>
-      <c r="AJ17" s="32"/>
-      <c r="AK17" s="32"/>
-      <c r="AL17" s="32"/>
-      <c r="AM17" s="32"/>
-      <c r="AN17" s="32"/>
-      <c r="AO17" s="32"/>
-      <c r="AP17" s="32"/>
-      <c r="AQ17" s="33"/>
-    </row>
-    <row r="18" spans="3:43" s="1" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.25">
+      <c r="Z17" s="29"/>
+      <c r="AA17" s="29"/>
+      <c r="AB17" s="29"/>
+      <c r="AC17" s="29"/>
+      <c r="AD17" s="29"/>
+      <c r="AE17" s="29"/>
+      <c r="AF17" s="29"/>
+      <c r="AG17" s="29"/>
+      <c r="AH17" s="29"/>
+      <c r="AI17" s="29"/>
+      <c r="AJ17" s="29"/>
+      <c r="AK17" s="29"/>
+      <c r="AL17" s="29"/>
+      <c r="AM17" s="29"/>
+      <c r="AN17" s="29"/>
+      <c r="AO17" s="29"/>
+      <c r="AP17" s="29"/>
+      <c r="AQ17" s="30"/>
+    </row>
+    <row r="18" spans="3:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C18" s="7"/>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="19" t="s">
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="21"/>
-      <c r="R18" s="19" t="s">
+      <c r="L18" s="32"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="32"/>
+      <c r="Q18" s="33"/>
+      <c r="R18" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="S18" s="20"/>
-      <c r="T18" s="20"/>
-      <c r="U18" s="20"/>
-      <c r="V18" s="20"/>
-      <c r="W18" s="20"/>
-      <c r="X18" s="21"/>
-      <c r="Y18" s="19" t="s">
+      <c r="S18" s="32"/>
+      <c r="T18" s="32"/>
+      <c r="U18" s="32"/>
+      <c r="V18" s="32"/>
+      <c r="W18" s="32"/>
+      <c r="X18" s="33"/>
+      <c r="Y18" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="Z18" s="20"/>
-      <c r="AA18" s="20"/>
-      <c r="AB18" s="20"/>
-      <c r="AC18" s="20"/>
-      <c r="AD18" s="20"/>
-      <c r="AE18" s="20"/>
-      <c r="AF18" s="20"/>
-      <c r="AG18" s="20"/>
-      <c r="AH18" s="20"/>
-      <c r="AI18" s="20"/>
-      <c r="AJ18" s="20"/>
-      <c r="AK18" s="20"/>
-      <c r="AL18" s="20"/>
-      <c r="AM18" s="20"/>
-      <c r="AN18" s="20"/>
-      <c r="AO18" s="20"/>
-      <c r="AP18" s="20"/>
-      <c r="AQ18" s="21"/>
-    </row>
-    <row r="19" spans="3:43" s="1" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.25">
+      <c r="Z18" s="32"/>
+      <c r="AA18" s="32"/>
+      <c r="AB18" s="32"/>
+      <c r="AC18" s="32"/>
+      <c r="AD18" s="32"/>
+      <c r="AE18" s="32"/>
+      <c r="AF18" s="32"/>
+      <c r="AG18" s="32"/>
+      <c r="AH18" s="32"/>
+      <c r="AI18" s="32"/>
+      <c r="AJ18" s="32"/>
+      <c r="AK18" s="32"/>
+      <c r="AL18" s="32"/>
+      <c r="AM18" s="32"/>
+      <c r="AN18" s="32"/>
+      <c r="AO18" s="32"/>
+      <c r="AP18" s="32"/>
+      <c r="AQ18" s="33"/>
+    </row>
+    <row r="19" spans="3:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C19" s="7"/>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="22" t="s">
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="22"/>
-      <c r="S19" s="23"/>
-      <c r="T19" s="23"/>
-      <c r="U19" s="23"/>
-      <c r="V19" s="23"/>
-      <c r="W19" s="23"/>
-      <c r="X19" s="24"/>
-      <c r="Y19" s="25" t="s">
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="17"/>
+      <c r="V19" s="17"/>
+      <c r="W19" s="17"/>
+      <c r="X19" s="18"/>
+      <c r="Y19" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="Z19" s="26"/>
-      <c r="AA19" s="26"/>
-      <c r="AB19" s="26"/>
-      <c r="AC19" s="26"/>
-      <c r="AD19" s="26"/>
-      <c r="AE19" s="26"/>
-      <c r="AF19" s="26"/>
-      <c r="AG19" s="26"/>
-      <c r="AH19" s="26"/>
-      <c r="AI19" s="26"/>
-      <c r="AJ19" s="26"/>
-      <c r="AK19" s="26"/>
-      <c r="AL19" s="26"/>
-      <c r="AM19" s="26"/>
-      <c r="AN19" s="26"/>
-      <c r="AO19" s="26"/>
-      <c r="AP19" s="26"/>
-      <c r="AQ19" s="27"/>
-    </row>
-    <row r="20" spans="3:43" s="1" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.25">
+      <c r="Z19" s="23"/>
+      <c r="AA19" s="23"/>
+      <c r="AB19" s="23"/>
+      <c r="AC19" s="23"/>
+      <c r="AD19" s="23"/>
+      <c r="AE19" s="23"/>
+      <c r="AF19" s="23"/>
+      <c r="AG19" s="23"/>
+      <c r="AH19" s="23"/>
+      <c r="AI19" s="23"/>
+      <c r="AJ19" s="23"/>
+      <c r="AK19" s="23"/>
+      <c r="AL19" s="23"/>
+      <c r="AM19" s="23"/>
+      <c r="AN19" s="23"/>
+      <c r="AO19" s="23"/>
+      <c r="AP19" s="23"/>
+      <c r="AQ19" s="24"/>
+    </row>
+    <row r="20" spans="3:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C20" s="7"/>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="13" t="s">
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="13"/>
-      <c r="S20" s="14"/>
-      <c r="T20" s="14"/>
-      <c r="U20" s="14"/>
-      <c r="V20" s="14"/>
-      <c r="W20" s="14"/>
-      <c r="X20" s="15"/>
-      <c r="Y20" s="16" t="s">
+      <c r="L20" s="41"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="41"/>
+      <c r="P20" s="41"/>
+      <c r="Q20" s="42"/>
+      <c r="R20" s="40"/>
+      <c r="S20" s="41"/>
+      <c r="T20" s="41"/>
+      <c r="U20" s="41"/>
+      <c r="V20" s="41"/>
+      <c r="W20" s="41"/>
+      <c r="X20" s="42"/>
+      <c r="Y20" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="Z20" s="17"/>
-      <c r="AA20" s="17"/>
-      <c r="AB20" s="17"/>
-      <c r="AC20" s="17"/>
-      <c r="AD20" s="17"/>
-      <c r="AE20" s="17"/>
-      <c r="AF20" s="17"/>
-      <c r="AG20" s="17"/>
-      <c r="AH20" s="17"/>
-      <c r="AI20" s="17"/>
-      <c r="AJ20" s="17"/>
-      <c r="AK20" s="17"/>
-      <c r="AL20" s="17"/>
-      <c r="AM20" s="17"/>
-      <c r="AN20" s="17"/>
-      <c r="AO20" s="17"/>
-      <c r="AP20" s="17"/>
-      <c r="AQ20" s="18"/>
-    </row>
-    <row r="21" spans="3:43" s="1" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.25">
+      <c r="Z20" s="44"/>
+      <c r="AA20" s="44"/>
+      <c r="AB20" s="44"/>
+      <c r="AC20" s="44"/>
+      <c r="AD20" s="44"/>
+      <c r="AE20" s="44"/>
+      <c r="AF20" s="44"/>
+      <c r="AG20" s="44"/>
+      <c r="AH20" s="44"/>
+      <c r="AI20" s="44"/>
+      <c r="AJ20" s="44"/>
+      <c r="AK20" s="44"/>
+      <c r="AL20" s="44"/>
+      <c r="AM20" s="44"/>
+      <c r="AN20" s="44"/>
+      <c r="AO20" s="44"/>
+      <c r="AP20" s="44"/>
+      <c r="AQ20" s="45"/>
+    </row>
+    <row r="21" spans="3:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C21" s="7"/>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="13" t="s">
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="13" t="s">
+      <c r="L21" s="41"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="41"/>
+      <c r="O21" s="41"/>
+      <c r="P21" s="41"/>
+      <c r="Q21" s="42"/>
+      <c r="R21" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="S21" s="14"/>
-      <c r="T21" s="14"/>
-      <c r="U21" s="14"/>
-      <c r="V21" s="14"/>
-      <c r="W21" s="14"/>
-      <c r="X21" s="15"/>
-      <c r="Y21" s="16"/>
-      <c r="Z21" s="17"/>
-      <c r="AA21" s="17"/>
-      <c r="AB21" s="17"/>
-      <c r="AC21" s="17"/>
-      <c r="AD21" s="17"/>
-      <c r="AE21" s="17"/>
-      <c r="AF21" s="17"/>
-      <c r="AG21" s="17"/>
-      <c r="AH21" s="17"/>
-      <c r="AI21" s="17"/>
-      <c r="AJ21" s="17"/>
-      <c r="AK21" s="17"/>
-      <c r="AL21" s="17"/>
-      <c r="AM21" s="17"/>
-      <c r="AN21" s="17"/>
-      <c r="AO21" s="17"/>
-      <c r="AP21" s="17"/>
-      <c r="AQ21" s="18"/>
-    </row>
-    <row r="22" spans="3:43" s="1" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S21" s="41"/>
+      <c r="T21" s="41"/>
+      <c r="U21" s="41"/>
+      <c r="V21" s="41"/>
+      <c r="W21" s="41"/>
+      <c r="X21" s="42"/>
+      <c r="Y21" s="43"/>
+      <c r="Z21" s="44"/>
+      <c r="AA21" s="44"/>
+      <c r="AB21" s="44"/>
+      <c r="AC21" s="44"/>
+      <c r="AD21" s="44"/>
+      <c r="AE21" s="44"/>
+      <c r="AF21" s="44"/>
+      <c r="AG21" s="44"/>
+      <c r="AH21" s="44"/>
+      <c r="AI21" s="44"/>
+      <c r="AJ21" s="44"/>
+      <c r="AK21" s="44"/>
+      <c r="AL21" s="44"/>
+      <c r="AM21" s="44"/>
+      <c r="AN21" s="44"/>
+      <c r="AO21" s="44"/>
+      <c r="AP21" s="44"/>
+      <c r="AQ21" s="45"/>
+    </row>
+    <row r="22" spans="3:43" s="1" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="7"/>
-      <c r="D22" s="22" t="s">
+      <c r="D22" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="22" t="s">
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="22"/>
-      <c r="S22" s="23"/>
-      <c r="T22" s="23"/>
-      <c r="U22" s="23"/>
-      <c r="V22" s="23"/>
-      <c r="W22" s="23"/>
-      <c r="X22" s="24"/>
-      <c r="Y22" s="25" t="s">
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="16"/>
+      <c r="S22" s="17"/>
+      <c r="T22" s="17"/>
+      <c r="U22" s="17"/>
+      <c r="V22" s="17"/>
+      <c r="W22" s="17"/>
+      <c r="X22" s="18"/>
+      <c r="Y22" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="Z22" s="26"/>
-      <c r="AA22" s="26"/>
-      <c r="AB22" s="26"/>
-      <c r="AC22" s="26"/>
-      <c r="AD22" s="26"/>
-      <c r="AE22" s="26"/>
-      <c r="AF22" s="26"/>
-      <c r="AG22" s="26"/>
-      <c r="AH22" s="26"/>
-      <c r="AI22" s="26"/>
-      <c r="AJ22" s="26"/>
-      <c r="AK22" s="26"/>
-      <c r="AL22" s="26"/>
-      <c r="AM22" s="26"/>
-      <c r="AN22" s="26"/>
-      <c r="AO22" s="26"/>
-      <c r="AP22" s="26"/>
-      <c r="AQ22" s="27"/>
-    </row>
-    <row r="23" spans="3:43" s="1" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.25">
+      <c r="Z22" s="23"/>
+      <c r="AA22" s="23"/>
+      <c r="AB22" s="23"/>
+      <c r="AC22" s="23"/>
+      <c r="AD22" s="23"/>
+      <c r="AE22" s="23"/>
+      <c r="AF22" s="23"/>
+      <c r="AG22" s="23"/>
+      <c r="AH22" s="23"/>
+      <c r="AI22" s="23"/>
+      <c r="AJ22" s="23"/>
+      <c r="AK22" s="23"/>
+      <c r="AL22" s="23"/>
+      <c r="AM22" s="23"/>
+      <c r="AN22" s="23"/>
+      <c r="AO22" s="23"/>
+      <c r="AP22" s="23"/>
+      <c r="AQ22" s="24"/>
+    </row>
+    <row r="23" spans="3:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C23" s="7"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="34" t="s">
+      <c r="D23" s="19"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="L23" s="35"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="35"/>
-      <c r="O23" s="35"/>
-      <c r="P23" s="35"/>
-      <c r="Q23" s="36"/>
-      <c r="R23" s="34"/>
-      <c r="S23" s="35"/>
-      <c r="T23" s="35"/>
-      <c r="U23" s="35"/>
-      <c r="V23" s="35"/>
-      <c r="W23" s="35"/>
-      <c r="X23" s="36"/>
-      <c r="Y23" s="37"/>
-      <c r="Z23" s="38"/>
-      <c r="AA23" s="38"/>
-      <c r="AB23" s="38"/>
-      <c r="AC23" s="38"/>
-      <c r="AD23" s="38"/>
-      <c r="AE23" s="38"/>
-      <c r="AF23" s="38"/>
-      <c r="AG23" s="38"/>
-      <c r="AH23" s="38"/>
-      <c r="AI23" s="38"/>
-      <c r="AJ23" s="38"/>
-      <c r="AK23" s="38"/>
-      <c r="AL23" s="38"/>
-      <c r="AM23" s="38"/>
-      <c r="AN23" s="38"/>
-      <c r="AO23" s="38"/>
-      <c r="AP23" s="38"/>
-      <c r="AQ23" s="39"/>
-    </row>
-    <row r="24" spans="3:43" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="21"/>
+      <c r="R23" s="19"/>
+      <c r="S23" s="20"/>
+      <c r="T23" s="20"/>
+      <c r="U23" s="20"/>
+      <c r="V23" s="20"/>
+      <c r="W23" s="20"/>
+      <c r="X23" s="21"/>
+      <c r="Y23" s="25"/>
+      <c r="Z23" s="26"/>
+      <c r="AA23" s="26"/>
+      <c r="AB23" s="26"/>
+      <c r="AC23" s="26"/>
+      <c r="AD23" s="26"/>
+      <c r="AE23" s="26"/>
+      <c r="AF23" s="26"/>
+      <c r="AG23" s="26"/>
+      <c r="AH23" s="26"/>
+      <c r="AI23" s="26"/>
+      <c r="AJ23" s="26"/>
+      <c r="AK23" s="26"/>
+      <c r="AL23" s="26"/>
+      <c r="AM23" s="26"/>
+      <c r="AN23" s="26"/>
+      <c r="AO23" s="26"/>
+      <c r="AP23" s="26"/>
+      <c r="AQ23" s="27"/>
+    </row>
+    <row r="24" spans="3:43" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="X24" s="8"/>
     </row>
-    <row r="25" spans="3:43" s="1" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C25" s="7" t="s">
         <v>24</v>
       </c>
@@ -9902,158 +9902,158 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="3:43" s="1" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:43" s="1" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C26" s="7"/>
-      <c r="D26" s="28" t="s">
+      <c r="D26" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="28" t="s">
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="30"/>
-      <c r="R26" s="28" t="s">
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="S26" s="29"/>
-      <c r="T26" s="29"/>
-      <c r="U26" s="29"/>
-      <c r="V26" s="29"/>
-      <c r="W26" s="29"/>
-      <c r="X26" s="30"/>
-      <c r="Y26" s="28" t="s">
+      <c r="S26" s="14"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="14"/>
+      <c r="V26" s="14"/>
+      <c r="W26" s="14"/>
+      <c r="X26" s="15"/>
+      <c r="Y26" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="Z26" s="29"/>
-      <c r="AA26" s="29"/>
-      <c r="AB26" s="29"/>
-      <c r="AC26" s="29"/>
-      <c r="AD26" s="29"/>
-      <c r="AE26" s="29"/>
-      <c r="AF26" s="29"/>
-      <c r="AG26" s="29"/>
-      <c r="AH26" s="29"/>
-      <c r="AI26" s="29"/>
-      <c r="AJ26" s="29"/>
-      <c r="AK26" s="29"/>
-      <c r="AL26" s="29"/>
-      <c r="AM26" s="29"/>
-      <c r="AN26" s="29"/>
-      <c r="AO26" s="29"/>
-      <c r="AP26" s="29"/>
-      <c r="AQ26" s="30"/>
-    </row>
-    <row r="27" spans="3:43" s="1" customFormat="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="Z26" s="14"/>
+      <c r="AA26" s="14"/>
+      <c r="AB26" s="14"/>
+      <c r="AC26" s="14"/>
+      <c r="AD26" s="14"/>
+      <c r="AE26" s="14"/>
+      <c r="AF26" s="14"/>
+      <c r="AG26" s="14"/>
+      <c r="AH26" s="14"/>
+      <c r="AI26" s="14"/>
+      <c r="AJ26" s="14"/>
+      <c r="AK26" s="14"/>
+      <c r="AL26" s="14"/>
+      <c r="AM26" s="14"/>
+      <c r="AN26" s="14"/>
+      <c r="AO26" s="14"/>
+      <c r="AP26" s="14"/>
+      <c r="AQ26" s="15"/>
+    </row>
+    <row r="27" spans="3:43" s="1" customFormat="1" ht="18.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="C27" s="7"/>
-      <c r="D27" s="31" t="s">
+      <c r="D27" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="31" t="s">
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="L27" s="32"/>
-      <c r="M27" s="32"/>
-      <c r="N27" s="32"/>
-      <c r="O27" s="32"/>
-      <c r="P27" s="32"/>
-      <c r="Q27" s="33"/>
-      <c r="R27" s="31" t="s">
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="30"/>
+      <c r="R27" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="S27" s="32"/>
-      <c r="T27" s="32"/>
-      <c r="U27" s="32"/>
-      <c r="V27" s="32"/>
-      <c r="W27" s="32"/>
-      <c r="X27" s="33"/>
-      <c r="Y27" s="31" t="s">
+      <c r="S27" s="29"/>
+      <c r="T27" s="29"/>
+      <c r="U27" s="29"/>
+      <c r="V27" s="29"/>
+      <c r="W27" s="29"/>
+      <c r="X27" s="30"/>
+      <c r="Y27" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="Z27" s="32"/>
-      <c r="AA27" s="32"/>
-      <c r="AB27" s="32"/>
-      <c r="AC27" s="32"/>
-      <c r="AD27" s="32"/>
-      <c r="AE27" s="32"/>
-      <c r="AF27" s="32"/>
-      <c r="AG27" s="32"/>
-      <c r="AH27" s="32"/>
-      <c r="AI27" s="32"/>
-      <c r="AJ27" s="32"/>
-      <c r="AK27" s="32"/>
-      <c r="AL27" s="32"/>
-      <c r="AM27" s="32"/>
-      <c r="AN27" s="32"/>
-      <c r="AO27" s="32"/>
-      <c r="AP27" s="32"/>
-      <c r="AQ27" s="33"/>
-    </row>
-    <row r="28" spans="3:43" s="1" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.25">
-      <c r="D28" s="19" t="s">
+      <c r="Z27" s="29"/>
+      <c r="AA27" s="29"/>
+      <c r="AB27" s="29"/>
+      <c r="AC27" s="29"/>
+      <c r="AD27" s="29"/>
+      <c r="AE27" s="29"/>
+      <c r="AF27" s="29"/>
+      <c r="AG27" s="29"/>
+      <c r="AH27" s="29"/>
+      <c r="AI27" s="29"/>
+      <c r="AJ27" s="29"/>
+      <c r="AK27" s="29"/>
+      <c r="AL27" s="29"/>
+      <c r="AM27" s="29"/>
+      <c r="AN27" s="29"/>
+      <c r="AO27" s="29"/>
+      <c r="AP27" s="29"/>
+      <c r="AQ27" s="30"/>
+    </row>
+    <row r="28" spans="3:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D28" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="19" t="s">
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="20"/>
-      <c r="O28" s="20"/>
-      <c r="P28" s="20"/>
-      <c r="Q28" s="21"/>
-      <c r="R28" s="19"/>
-      <c r="S28" s="20"/>
-      <c r="T28" s="20"/>
-      <c r="U28" s="20"/>
-      <c r="V28" s="20"/>
-      <c r="W28" s="20"/>
-      <c r="X28" s="21"/>
-      <c r="Y28" s="19" t="s">
+      <c r="L28" s="32"/>
+      <c r="M28" s="32"/>
+      <c r="N28" s="32"/>
+      <c r="O28" s="32"/>
+      <c r="P28" s="32"/>
+      <c r="Q28" s="33"/>
+      <c r="R28" s="31"/>
+      <c r="S28" s="32"/>
+      <c r="T28" s="32"/>
+      <c r="U28" s="32"/>
+      <c r="V28" s="32"/>
+      <c r="W28" s="32"/>
+      <c r="X28" s="33"/>
+      <c r="Y28" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="Z28" s="20"/>
-      <c r="AA28" s="20"/>
-      <c r="AB28" s="20"/>
-      <c r="AC28" s="20"/>
-      <c r="AD28" s="20"/>
-      <c r="AE28" s="20"/>
-      <c r="AF28" s="20"/>
-      <c r="AG28" s="20"/>
-      <c r="AH28" s="20"/>
-      <c r="AI28" s="20"/>
-      <c r="AJ28" s="20"/>
-      <c r="AK28" s="20"/>
-      <c r="AL28" s="20"/>
-      <c r="AM28" s="20"/>
-      <c r="AN28" s="20"/>
-      <c r="AO28" s="20"/>
-      <c r="AP28" s="20"/>
-      <c r="AQ28" s="21"/>
-    </row>
-    <row r="29" spans="3:43" s="1" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="3:43" s="1" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.25">
+      <c r="Z28" s="32"/>
+      <c r="AA28" s="32"/>
+      <c r="AB28" s="32"/>
+      <c r="AC28" s="32"/>
+      <c r="AD28" s="32"/>
+      <c r="AE28" s="32"/>
+      <c r="AF28" s="32"/>
+      <c r="AG28" s="32"/>
+      <c r="AH28" s="32"/>
+      <c r="AI28" s="32"/>
+      <c r="AJ28" s="32"/>
+      <c r="AK28" s="32"/>
+      <c r="AL28" s="32"/>
+      <c r="AM28" s="32"/>
+      <c r="AN28" s="32"/>
+      <c r="AO28" s="32"/>
+      <c r="AP28" s="32"/>
+      <c r="AQ28" s="33"/>
+    </row>
+    <row r="29" spans="3:43" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="3:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C30" s="7" t="s">
         <v>24</v>
       </c>
@@ -10100,405 +10100,475 @@
       <c r="AP30" s="7"/>
       <c r="AQ30" s="7"/>
     </row>
-    <row r="31" spans="3:43" s="1" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:43" s="1" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C31" s="7"/>
-      <c r="D31" s="28" t="s">
+      <c r="D31" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="30"/>
-      <c r="K31" s="28" t="s">
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="29"/>
-      <c r="O31" s="29"/>
-      <c r="P31" s="29"/>
-      <c r="Q31" s="30"/>
-      <c r="R31" s="28" t="s">
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="15"/>
+      <c r="R31" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="S31" s="29"/>
-      <c r="T31" s="29"/>
-      <c r="U31" s="29"/>
-      <c r="V31" s="29"/>
-      <c r="W31" s="29"/>
-      <c r="X31" s="30"/>
-      <c r="Y31" s="28" t="s">
+      <c r="S31" s="14"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="14"/>
+      <c r="V31" s="14"/>
+      <c r="W31" s="14"/>
+      <c r="X31" s="15"/>
+      <c r="Y31" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="Z31" s="29"/>
-      <c r="AA31" s="29"/>
-      <c r="AB31" s="29"/>
-      <c r="AC31" s="29"/>
-      <c r="AD31" s="29"/>
-      <c r="AE31" s="29"/>
-      <c r="AF31" s="29"/>
-      <c r="AG31" s="29"/>
-      <c r="AH31" s="29"/>
-      <c r="AI31" s="29"/>
-      <c r="AJ31" s="29"/>
-      <c r="AK31" s="29"/>
-      <c r="AL31" s="29"/>
-      <c r="AM31" s="29"/>
-      <c r="AN31" s="29"/>
-      <c r="AO31" s="29"/>
-      <c r="AP31" s="29"/>
-      <c r="AQ31" s="30"/>
-    </row>
-    <row r="32" spans="3:43" s="1" customFormat="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="Z31" s="14"/>
+      <c r="AA31" s="14"/>
+      <c r="AB31" s="14"/>
+      <c r="AC31" s="14"/>
+      <c r="AD31" s="14"/>
+      <c r="AE31" s="14"/>
+      <c r="AF31" s="14"/>
+      <c r="AG31" s="14"/>
+      <c r="AH31" s="14"/>
+      <c r="AI31" s="14"/>
+      <c r="AJ31" s="14"/>
+      <c r="AK31" s="14"/>
+      <c r="AL31" s="14"/>
+      <c r="AM31" s="14"/>
+      <c r="AN31" s="14"/>
+      <c r="AO31" s="14"/>
+      <c r="AP31" s="14"/>
+      <c r="AQ31" s="15"/>
+    </row>
+    <row r="32" spans="3:43" s="1" customFormat="1" ht="18.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="C32" s="7"/>
-      <c r="D32" s="31" t="s">
+      <c r="D32" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="32"/>
-      <c r="J32" s="33"/>
-      <c r="K32" s="31" t="s">
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="L32" s="32"/>
-      <c r="M32" s="32"/>
-      <c r="N32" s="32"/>
-      <c r="O32" s="32"/>
-      <c r="P32" s="32"/>
-      <c r="Q32" s="33"/>
-      <c r="R32" s="31" t="s">
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="29"/>
+      <c r="O32" s="29"/>
+      <c r="P32" s="29"/>
+      <c r="Q32" s="30"/>
+      <c r="R32" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="S32" s="32"/>
-      <c r="T32" s="32"/>
-      <c r="U32" s="32"/>
-      <c r="V32" s="32"/>
-      <c r="W32" s="32"/>
-      <c r="X32" s="33"/>
-      <c r="Y32" s="31" t="s">
+      <c r="S32" s="29"/>
+      <c r="T32" s="29"/>
+      <c r="U32" s="29"/>
+      <c r="V32" s="29"/>
+      <c r="W32" s="29"/>
+      <c r="X32" s="30"/>
+      <c r="Y32" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="Z32" s="32"/>
-      <c r="AA32" s="32"/>
-      <c r="AB32" s="32"/>
-      <c r="AC32" s="32"/>
-      <c r="AD32" s="32"/>
-      <c r="AE32" s="32"/>
-      <c r="AF32" s="32"/>
-      <c r="AG32" s="32"/>
-      <c r="AH32" s="32"/>
-      <c r="AI32" s="32"/>
-      <c r="AJ32" s="32"/>
-      <c r="AK32" s="32"/>
-      <c r="AL32" s="32"/>
-      <c r="AM32" s="32"/>
-      <c r="AN32" s="32"/>
-      <c r="AO32" s="32"/>
-      <c r="AP32" s="32"/>
-      <c r="AQ32" s="33"/>
-    </row>
-    <row r="33" spans="3:43" s="1" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.25">
+      <c r="Z32" s="29"/>
+      <c r="AA32" s="29"/>
+      <c r="AB32" s="29"/>
+      <c r="AC32" s="29"/>
+      <c r="AD32" s="29"/>
+      <c r="AE32" s="29"/>
+      <c r="AF32" s="29"/>
+      <c r="AG32" s="29"/>
+      <c r="AH32" s="29"/>
+      <c r="AI32" s="29"/>
+      <c r="AJ32" s="29"/>
+      <c r="AK32" s="29"/>
+      <c r="AL32" s="29"/>
+      <c r="AM32" s="29"/>
+      <c r="AN32" s="29"/>
+      <c r="AO32" s="29"/>
+      <c r="AP32" s="29"/>
+      <c r="AQ32" s="30"/>
+    </row>
+    <row r="33" spans="3:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C33" s="7"/>
-      <c r="D33" s="19" t="s">
+      <c r="D33" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="19" t="s">
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="L33" s="20"/>
-      <c r="M33" s="20"/>
-      <c r="N33" s="20"/>
-      <c r="O33" s="20"/>
-      <c r="P33" s="20"/>
-      <c r="Q33" s="21"/>
-      <c r="R33" s="19" t="s">
+      <c r="L33" s="32"/>
+      <c r="M33" s="32"/>
+      <c r="N33" s="32"/>
+      <c r="O33" s="32"/>
+      <c r="P33" s="32"/>
+      <c r="Q33" s="33"/>
+      <c r="R33" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="S33" s="20"/>
-      <c r="T33" s="20"/>
-      <c r="U33" s="20"/>
-      <c r="V33" s="20"/>
-      <c r="W33" s="20"/>
-      <c r="X33" s="21"/>
-      <c r="Y33" s="19" t="s">
+      <c r="S33" s="32"/>
+      <c r="T33" s="32"/>
+      <c r="U33" s="32"/>
+      <c r="V33" s="32"/>
+      <c r="W33" s="32"/>
+      <c r="X33" s="33"/>
+      <c r="Y33" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="Z33" s="20"/>
-      <c r="AA33" s="20"/>
-      <c r="AB33" s="20"/>
-      <c r="AC33" s="20"/>
-      <c r="AD33" s="20"/>
-      <c r="AE33" s="20"/>
-      <c r="AF33" s="20"/>
-      <c r="AG33" s="20"/>
-      <c r="AH33" s="20"/>
-      <c r="AI33" s="20"/>
-      <c r="AJ33" s="20"/>
-      <c r="AK33" s="20"/>
-      <c r="AL33" s="20"/>
-      <c r="AM33" s="20"/>
-      <c r="AN33" s="20"/>
-      <c r="AO33" s="20"/>
-      <c r="AP33" s="20"/>
-      <c r="AQ33" s="21"/>
-    </row>
-    <row r="34" spans="3:43" s="1" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.25">
+      <c r="Z33" s="32"/>
+      <c r="AA33" s="32"/>
+      <c r="AB33" s="32"/>
+      <c r="AC33" s="32"/>
+      <c r="AD33" s="32"/>
+      <c r="AE33" s="32"/>
+      <c r="AF33" s="32"/>
+      <c r="AG33" s="32"/>
+      <c r="AH33" s="32"/>
+      <c r="AI33" s="32"/>
+      <c r="AJ33" s="32"/>
+      <c r="AK33" s="32"/>
+      <c r="AL33" s="32"/>
+      <c r="AM33" s="32"/>
+      <c r="AN33" s="32"/>
+      <c r="AO33" s="32"/>
+      <c r="AP33" s="32"/>
+      <c r="AQ33" s="33"/>
+    </row>
+    <row r="34" spans="3:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C34" s="7"/>
-      <c r="D34" s="22" t="s">
+      <c r="D34" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="13" t="s">
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="L34" s="14"/>
-      <c r="M34" s="14"/>
-      <c r="N34" s="14"/>
-      <c r="O34" s="14"/>
-      <c r="P34" s="14"/>
-      <c r="Q34" s="15"/>
-      <c r="R34" s="22"/>
-      <c r="S34" s="23"/>
-      <c r="T34" s="23"/>
-      <c r="U34" s="23"/>
-      <c r="V34" s="23"/>
-      <c r="W34" s="23"/>
-      <c r="X34" s="24"/>
-      <c r="Y34" s="25" t="s">
+      <c r="L34" s="41"/>
+      <c r="M34" s="41"/>
+      <c r="N34" s="41"/>
+      <c r="O34" s="41"/>
+      <c r="P34" s="41"/>
+      <c r="Q34" s="42"/>
+      <c r="R34" s="16"/>
+      <c r="S34" s="17"/>
+      <c r="T34" s="17"/>
+      <c r="U34" s="17"/>
+      <c r="V34" s="17"/>
+      <c r="W34" s="17"/>
+      <c r="X34" s="18"/>
+      <c r="Y34" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="Z34" s="26"/>
-      <c r="AA34" s="26"/>
-      <c r="AB34" s="26"/>
-      <c r="AC34" s="26"/>
-      <c r="AD34" s="26"/>
-      <c r="AE34" s="26"/>
-      <c r="AF34" s="26"/>
-      <c r="AG34" s="26"/>
-      <c r="AH34" s="26"/>
-      <c r="AI34" s="26"/>
-      <c r="AJ34" s="26"/>
-      <c r="AK34" s="26"/>
-      <c r="AL34" s="26"/>
-      <c r="AM34" s="26"/>
-      <c r="AN34" s="26"/>
-      <c r="AO34" s="26"/>
-      <c r="AP34" s="26"/>
-      <c r="AQ34" s="27"/>
-    </row>
-    <row r="35" spans="3:43" s="1" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.25">
+      <c r="Z34" s="23"/>
+      <c r="AA34" s="23"/>
+      <c r="AB34" s="23"/>
+      <c r="AC34" s="23"/>
+      <c r="AD34" s="23"/>
+      <c r="AE34" s="23"/>
+      <c r="AF34" s="23"/>
+      <c r="AG34" s="23"/>
+      <c r="AH34" s="23"/>
+      <c r="AI34" s="23"/>
+      <c r="AJ34" s="23"/>
+      <c r="AK34" s="23"/>
+      <c r="AL34" s="23"/>
+      <c r="AM34" s="23"/>
+      <c r="AN34" s="23"/>
+      <c r="AO34" s="23"/>
+      <c r="AP34" s="23"/>
+      <c r="AQ34" s="24"/>
+    </row>
+    <row r="35" spans="3:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C35" s="7"/>
-      <c r="D35" s="13" t="s">
+      <c r="D35" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="13" t="s">
+      <c r="E35" s="41"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="41"/>
+      <c r="J35" s="42"/>
+      <c r="K35" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="L35" s="14"/>
-      <c r="M35" s="14"/>
-      <c r="N35" s="14"/>
-      <c r="O35" s="14"/>
-      <c r="P35" s="14"/>
-      <c r="Q35" s="15"/>
-      <c r="R35" s="13"/>
-      <c r="S35" s="14"/>
-      <c r="T35" s="14"/>
-      <c r="U35" s="14"/>
-      <c r="V35" s="14"/>
-      <c r="W35" s="14"/>
-      <c r="X35" s="15"/>
-      <c r="Y35" s="16" t="s">
+      <c r="L35" s="41"/>
+      <c r="M35" s="41"/>
+      <c r="N35" s="41"/>
+      <c r="O35" s="41"/>
+      <c r="P35" s="41"/>
+      <c r="Q35" s="42"/>
+      <c r="R35" s="40"/>
+      <c r="S35" s="41"/>
+      <c r="T35" s="41"/>
+      <c r="U35" s="41"/>
+      <c r="V35" s="41"/>
+      <c r="W35" s="41"/>
+      <c r="X35" s="42"/>
+      <c r="Y35" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="Z35" s="17"/>
-      <c r="AA35" s="17"/>
-      <c r="AB35" s="17"/>
-      <c r="AC35" s="17"/>
-      <c r="AD35" s="17"/>
-      <c r="AE35" s="17"/>
-      <c r="AF35" s="17"/>
-      <c r="AG35" s="17"/>
-      <c r="AH35" s="17"/>
-      <c r="AI35" s="17"/>
-      <c r="AJ35" s="17"/>
-      <c r="AK35" s="17"/>
-      <c r="AL35" s="17"/>
-      <c r="AM35" s="17"/>
-      <c r="AN35" s="17"/>
-      <c r="AO35" s="17"/>
-      <c r="AP35" s="17"/>
-      <c r="AQ35" s="18"/>
-    </row>
-    <row r="36" spans="3:43" s="1" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.25">
+      <c r="Z35" s="44"/>
+      <c r="AA35" s="44"/>
+      <c r="AB35" s="44"/>
+      <c r="AC35" s="44"/>
+      <c r="AD35" s="44"/>
+      <c r="AE35" s="44"/>
+      <c r="AF35" s="44"/>
+      <c r="AG35" s="44"/>
+      <c r="AH35" s="44"/>
+      <c r="AI35" s="44"/>
+      <c r="AJ35" s="44"/>
+      <c r="AK35" s="44"/>
+      <c r="AL35" s="44"/>
+      <c r="AM35" s="44"/>
+      <c r="AN35" s="44"/>
+      <c r="AO35" s="44"/>
+      <c r="AP35" s="44"/>
+      <c r="AQ35" s="45"/>
+    </row>
+    <row r="36" spans="3:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C36" s="7"/>
-      <c r="D36" s="13" t="s">
+      <c r="D36" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="13" t="s">
+      <c r="E36" s="41"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="41"/>
+      <c r="I36" s="41"/>
+      <c r="J36" s="42"/>
+      <c r="K36" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="L36" s="14"/>
-      <c r="M36" s="14"/>
-      <c r="N36" s="14"/>
-      <c r="O36" s="14"/>
-      <c r="P36" s="14"/>
-      <c r="Q36" s="15"/>
-      <c r="R36" s="13" t="s">
+      <c r="L36" s="41"/>
+      <c r="M36" s="41"/>
+      <c r="N36" s="41"/>
+      <c r="O36" s="41"/>
+      <c r="P36" s="41"/>
+      <c r="Q36" s="42"/>
+      <c r="R36" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="S36" s="14"/>
-      <c r="T36" s="14"/>
-      <c r="U36" s="14"/>
-      <c r="V36" s="14"/>
-      <c r="W36" s="14"/>
-      <c r="X36" s="15"/>
-      <c r="Y36" s="16" t="s">
+      <c r="S36" s="41"/>
+      <c r="T36" s="41"/>
+      <c r="U36" s="41"/>
+      <c r="V36" s="41"/>
+      <c r="W36" s="41"/>
+      <c r="X36" s="42"/>
+      <c r="Y36" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="Z36" s="17"/>
-      <c r="AA36" s="17"/>
-      <c r="AB36" s="17"/>
-      <c r="AC36" s="17"/>
-      <c r="AD36" s="17"/>
-      <c r="AE36" s="17"/>
-      <c r="AF36" s="17"/>
-      <c r="AG36" s="17"/>
-      <c r="AH36" s="17"/>
-      <c r="AI36" s="17"/>
-      <c r="AJ36" s="17"/>
-      <c r="AK36" s="17"/>
-      <c r="AL36" s="17"/>
-      <c r="AM36" s="17"/>
-      <c r="AN36" s="17"/>
-      <c r="AO36" s="17"/>
-      <c r="AP36" s="17"/>
-      <c r="AQ36" s="18"/>
-    </row>
-    <row r="37" spans="3:43" s="1" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.25">
+      <c r="Z36" s="44"/>
+      <c r="AA36" s="44"/>
+      <c r="AB36" s="44"/>
+      <c r="AC36" s="44"/>
+      <c r="AD36" s="44"/>
+      <c r="AE36" s="44"/>
+      <c r="AF36" s="44"/>
+      <c r="AG36" s="44"/>
+      <c r="AH36" s="44"/>
+      <c r="AI36" s="44"/>
+      <c r="AJ36" s="44"/>
+      <c r="AK36" s="44"/>
+      <c r="AL36" s="44"/>
+      <c r="AM36" s="44"/>
+      <c r="AN36" s="44"/>
+      <c r="AO36" s="44"/>
+      <c r="AP36" s="44"/>
+      <c r="AQ36" s="45"/>
+    </row>
+    <row r="37" spans="3:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C37" s="7"/>
-      <c r="D37" s="22" t="s">
+      <c r="D37" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="24"/>
-      <c r="K37" s="22" t="s">
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="L37" s="23"/>
-      <c r="M37" s="23"/>
-      <c r="N37" s="23"/>
-      <c r="O37" s="23"/>
-      <c r="P37" s="23"/>
-      <c r="Q37" s="24"/>
-      <c r="R37" s="22"/>
-      <c r="S37" s="23"/>
-      <c r="T37" s="23"/>
-      <c r="U37" s="23"/>
-      <c r="V37" s="23"/>
-      <c r="W37" s="23"/>
-      <c r="X37" s="24"/>
-      <c r="Y37" s="25" t="s">
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="18"/>
+      <c r="R37" s="16"/>
+      <c r="S37" s="17"/>
+      <c r="T37" s="17"/>
+      <c r="U37" s="17"/>
+      <c r="V37" s="17"/>
+      <c r="W37" s="17"/>
+      <c r="X37" s="18"/>
+      <c r="Y37" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="Z37" s="26"/>
-      <c r="AA37" s="26"/>
-      <c r="AB37" s="26"/>
-      <c r="AC37" s="26"/>
-      <c r="AD37" s="26"/>
-      <c r="AE37" s="26"/>
-      <c r="AF37" s="26"/>
-      <c r="AG37" s="26"/>
-      <c r="AH37" s="26"/>
-      <c r="AI37" s="26"/>
-      <c r="AJ37" s="26"/>
-      <c r="AK37" s="26"/>
-      <c r="AL37" s="26"/>
-      <c r="AM37" s="26"/>
-      <c r="AN37" s="26"/>
-      <c r="AO37" s="26"/>
-      <c r="AP37" s="26"/>
-      <c r="AQ37" s="27"/>
-    </row>
-    <row r="38" spans="3:43" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D38" s="34"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="35"/>
-      <c r="I38" s="35"/>
-      <c r="J38" s="36"/>
-      <c r="K38" s="34" t="s">
+      <c r="Z37" s="23"/>
+      <c r="AA37" s="23"/>
+      <c r="AB37" s="23"/>
+      <c r="AC37" s="23"/>
+      <c r="AD37" s="23"/>
+      <c r="AE37" s="23"/>
+      <c r="AF37" s="23"/>
+      <c r="AG37" s="23"/>
+      <c r="AH37" s="23"/>
+      <c r="AI37" s="23"/>
+      <c r="AJ37" s="23"/>
+      <c r="AK37" s="23"/>
+      <c r="AL37" s="23"/>
+      <c r="AM37" s="23"/>
+      <c r="AN37" s="23"/>
+      <c r="AO37" s="23"/>
+      <c r="AP37" s="23"/>
+      <c r="AQ37" s="24"/>
+    </row>
+    <row r="38" spans="3:43" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D38" s="19"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="L38" s="35"/>
-      <c r="M38" s="35"/>
-      <c r="N38" s="35"/>
-      <c r="O38" s="35"/>
-      <c r="P38" s="35"/>
-      <c r="Q38" s="36"/>
-      <c r="R38" s="34"/>
-      <c r="S38" s="35"/>
-      <c r="T38" s="35"/>
-      <c r="U38" s="35"/>
-      <c r="V38" s="35"/>
-      <c r="W38" s="35"/>
-      <c r="X38" s="36"/>
-      <c r="Y38" s="37" t="s">
+      <c r="L38" s="20"/>
+      <c r="M38" s="20"/>
+      <c r="N38" s="20"/>
+      <c r="O38" s="20"/>
+      <c r="P38" s="20"/>
+      <c r="Q38" s="21"/>
+      <c r="R38" s="19"/>
+      <c r="S38" s="20"/>
+      <c r="T38" s="20"/>
+      <c r="U38" s="20"/>
+      <c r="V38" s="20"/>
+      <c r="W38" s="20"/>
+      <c r="X38" s="21"/>
+      <c r="Y38" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="Z38" s="38"/>
-      <c r="AA38" s="38"/>
-      <c r="AB38" s="38"/>
-      <c r="AC38" s="38"/>
-      <c r="AD38" s="38"/>
-      <c r="AE38" s="38"/>
-      <c r="AF38" s="38"/>
-      <c r="AG38" s="38"/>
-      <c r="AH38" s="38"/>
-      <c r="AI38" s="38"/>
-      <c r="AJ38" s="38"/>
-      <c r="AK38" s="38"/>
-      <c r="AL38" s="38"/>
-      <c r="AM38" s="38"/>
-      <c r="AN38" s="38"/>
-      <c r="AO38" s="38"/>
-      <c r="AP38" s="38"/>
-      <c r="AQ38" s="39"/>
+      <c r="Z38" s="26"/>
+      <c r="AA38" s="26"/>
+      <c r="AB38" s="26"/>
+      <c r="AC38" s="26"/>
+      <c r="AD38" s="26"/>
+      <c r="AE38" s="26"/>
+      <c r="AF38" s="26"/>
+      <c r="AG38" s="26"/>
+      <c r="AH38" s="26"/>
+      <c r="AI38" s="26"/>
+      <c r="AJ38" s="26"/>
+      <c r="AK38" s="26"/>
+      <c r="AL38" s="26"/>
+      <c r="AM38" s="26"/>
+      <c r="AN38" s="26"/>
+      <c r="AO38" s="26"/>
+      <c r="AP38" s="26"/>
+      <c r="AQ38" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="86">
+    <mergeCell ref="D35:J35"/>
+    <mergeCell ref="K35:Q35"/>
+    <mergeCell ref="R35:X35"/>
+    <mergeCell ref="Y35:AQ35"/>
+    <mergeCell ref="D36:J36"/>
+    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="R36:X36"/>
+    <mergeCell ref="Y36:AQ36"/>
+    <mergeCell ref="D33:J33"/>
+    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="R33:X33"/>
+    <mergeCell ref="Y33:AQ33"/>
+    <mergeCell ref="D34:J34"/>
+    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="R34:X34"/>
+    <mergeCell ref="Y34:AQ34"/>
+    <mergeCell ref="D31:J31"/>
+    <mergeCell ref="K31:Q31"/>
+    <mergeCell ref="R31:X31"/>
+    <mergeCell ref="Y31:AQ31"/>
+    <mergeCell ref="D32:J32"/>
+    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="R32:X32"/>
+    <mergeCell ref="Y32:AQ32"/>
+    <mergeCell ref="D22:J23"/>
+    <mergeCell ref="K22:Q23"/>
+    <mergeCell ref="R22:X23"/>
+    <mergeCell ref="Y22:AQ23"/>
+    <mergeCell ref="D20:J20"/>
+    <mergeCell ref="K20:Q20"/>
+    <mergeCell ref="R20:X20"/>
+    <mergeCell ref="Y20:AQ20"/>
+    <mergeCell ref="D21:J21"/>
+    <mergeCell ref="K21:Q21"/>
+    <mergeCell ref="R21:X21"/>
+    <mergeCell ref="Y21:AQ21"/>
+    <mergeCell ref="D18:J18"/>
+    <mergeCell ref="K18:Q18"/>
+    <mergeCell ref="R18:X18"/>
+    <mergeCell ref="Y18:AQ18"/>
+    <mergeCell ref="D19:J19"/>
+    <mergeCell ref="K19:Q19"/>
+    <mergeCell ref="R19:X19"/>
+    <mergeCell ref="Y19:AQ19"/>
+    <mergeCell ref="D13:J13"/>
+    <mergeCell ref="K13:Q13"/>
+    <mergeCell ref="R13:X13"/>
+    <mergeCell ref="Y13:AQ13"/>
+    <mergeCell ref="D17:J17"/>
+    <mergeCell ref="K17:Q17"/>
+    <mergeCell ref="R17:X17"/>
+    <mergeCell ref="Y17:AQ17"/>
+    <mergeCell ref="D16:J16"/>
+    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="R16:X16"/>
+    <mergeCell ref="Y16:AQ16"/>
+    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="R11:X11"/>
+    <mergeCell ref="Y11:AQ11"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="K12:Q12"/>
+    <mergeCell ref="R12:X12"/>
+    <mergeCell ref="Y12:AQ12"/>
+    <mergeCell ref="J5:P5"/>
+    <mergeCell ref="J6:P6"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="C7:I7"/>
     <mergeCell ref="D26:J26"/>
     <mergeCell ref="K26:Q26"/>
     <mergeCell ref="R26:X26"/>
@@ -10515,76 +10585,6 @@
     <mergeCell ref="K28:Q28"/>
     <mergeCell ref="R28:X28"/>
     <mergeCell ref="Y28:AQ28"/>
-    <mergeCell ref="J5:P5"/>
-    <mergeCell ref="J6:P6"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="D11:J11"/>
-    <mergeCell ref="K11:Q11"/>
-    <mergeCell ref="R11:X11"/>
-    <mergeCell ref="Y11:AQ11"/>
-    <mergeCell ref="D12:J12"/>
-    <mergeCell ref="K12:Q12"/>
-    <mergeCell ref="R12:X12"/>
-    <mergeCell ref="Y12:AQ12"/>
-    <mergeCell ref="D13:J13"/>
-    <mergeCell ref="K13:Q13"/>
-    <mergeCell ref="R13:X13"/>
-    <mergeCell ref="Y13:AQ13"/>
-    <mergeCell ref="D17:J17"/>
-    <mergeCell ref="K17:Q17"/>
-    <mergeCell ref="R17:X17"/>
-    <mergeCell ref="Y17:AQ17"/>
-    <mergeCell ref="D16:J16"/>
-    <mergeCell ref="K16:Q16"/>
-    <mergeCell ref="R16:X16"/>
-    <mergeCell ref="Y16:AQ16"/>
-    <mergeCell ref="D18:J18"/>
-    <mergeCell ref="K18:Q18"/>
-    <mergeCell ref="R18:X18"/>
-    <mergeCell ref="Y18:AQ18"/>
-    <mergeCell ref="D19:J19"/>
-    <mergeCell ref="K19:Q19"/>
-    <mergeCell ref="R19:X19"/>
-    <mergeCell ref="Y19:AQ19"/>
-    <mergeCell ref="D22:J23"/>
-    <mergeCell ref="K22:Q23"/>
-    <mergeCell ref="R22:X23"/>
-    <mergeCell ref="Y22:AQ23"/>
-    <mergeCell ref="D20:J20"/>
-    <mergeCell ref="K20:Q20"/>
-    <mergeCell ref="R20:X20"/>
-    <mergeCell ref="Y20:AQ20"/>
-    <mergeCell ref="D21:J21"/>
-    <mergeCell ref="K21:Q21"/>
-    <mergeCell ref="R21:X21"/>
-    <mergeCell ref="Y21:AQ21"/>
-    <mergeCell ref="D31:J31"/>
-    <mergeCell ref="K31:Q31"/>
-    <mergeCell ref="R31:X31"/>
-    <mergeCell ref="Y31:AQ31"/>
-    <mergeCell ref="D32:J32"/>
-    <mergeCell ref="K32:Q32"/>
-    <mergeCell ref="R32:X32"/>
-    <mergeCell ref="Y32:AQ32"/>
-    <mergeCell ref="D33:J33"/>
-    <mergeCell ref="K33:Q33"/>
-    <mergeCell ref="R33:X33"/>
-    <mergeCell ref="Y33:AQ33"/>
-    <mergeCell ref="D34:J34"/>
-    <mergeCell ref="K34:Q34"/>
-    <mergeCell ref="R34:X34"/>
-    <mergeCell ref="Y34:AQ34"/>
-    <mergeCell ref="D35:J35"/>
-    <mergeCell ref="K35:Q35"/>
-    <mergeCell ref="R35:X35"/>
-    <mergeCell ref="Y35:AQ35"/>
-    <mergeCell ref="D36:J36"/>
-    <mergeCell ref="K36:Q36"/>
-    <mergeCell ref="R36:X36"/>
-    <mergeCell ref="Y36:AQ36"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -10603,355 +10603,357 @@
   </sheetPr>
   <dimension ref="A1:V73"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A87" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="W94" sqref="W94"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16384" width="3" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="22.9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="11" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="11" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="11" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="23" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="24" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="25" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="26" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="11" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="29" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="30" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="31" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="32" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="33" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="34" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="1"/>
     </row>
-    <row r="35" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="11" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="36" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="37" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="38" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="39" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="1"/>
     </row>
-    <row r="41" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="11" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="42" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="43" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="44" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="45" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
         <v>137</v>
       </c>
       <c r="U45" s="10"/>
       <c r="V45" s="10"/>
     </row>
-    <row r="46" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="47" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="48" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="1"/>
     </row>
-    <row r="49" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="11" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="50" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="51" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="52" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="53" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="54" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="55" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="56" spans="2:2" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="57" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="58" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="59" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="1"/>
     </row>
-    <row r="60" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="11" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="61" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="62" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="63" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="64" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="65" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="66" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="67" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="68" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="69" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="7" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="70" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="7" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="71" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="7" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="72" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="7" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="73" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="7" t="s">
         <v>161</v>
       </c>
@@ -10979,17 +10981,17 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.1328125" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.08984375" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="3.1328125" style="1"/>
+    <col min="1" max="16384" width="3.08984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="22.9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>83</v>
       </c>
@@ -10997,12 +10999,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
@@ -11010,37 +11012,37 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C6" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D31" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B40" s="3" t="s">
         <v>3</v>
       </c>
@@ -11048,32 +11050,32 @@
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B41" s="3"/>
       <c r="C41" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
     </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="62" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="63" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>1</v>
       </c>
@@ -11081,7 +11083,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>1</v>
       </c>
@@ -11089,7 +11091,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B75" s="3" t="s">
         <v>3</v>
       </c>
@@ -11097,17 +11099,17 @@
         <v>66</v>
       </c>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B76" s="3"/>
       <c r="C76" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B87" s="3" t="s">
         <v>3</v>
       </c>
@@ -11115,18 +11117,18 @@
         <v>67</v>
       </c>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B88" s="3"/>
       <c r="C88" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B113" s="3" t="s">
         <v>3</v>
       </c>
@@ -11134,13 +11136,13 @@
         <v>68</v>
       </c>
     </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B114" s="3"/>
       <c r="C114" s="3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="140" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B140" s="3" t="s">
         <v>3</v>
       </c>
@@ -11148,23 +11150,23 @@
         <v>176</v>
       </c>
     </row>
-    <row r="141" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B141" s="3"/>
       <c r="C141" s="3" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="155" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C155" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="156" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C156" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="157" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C157" s="1" t="s">
         <v>1</v>
       </c>
@@ -11172,7 +11174,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="158" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C158" s="1" t="s">
         <v>1</v>
       </c>
@@ -11180,17 +11182,17 @@
         <v>105</v>
       </c>
     </row>
-    <row r="163" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C163" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="164" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C164" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="165" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C165" s="1" t="s">
         <v>1</v>
       </c>
@@ -11221,19 +11223,21 @@
   </sheetPr>
   <dimension ref="A1:F172"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A99" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AP108" sqref="AP108"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.1328125" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.08984375" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="3.1328125" style="1"/>
+    <col min="1" max="16384" width="3.08984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="22.9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>69</v>
       </c>
@@ -11241,7 +11245,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
@@ -11249,12 +11253,12 @@
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D5" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>1</v>
       </c>
@@ -11262,12 +11266,12 @@
         <v>208</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D8" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>1</v>
       </c>
@@ -11275,7 +11279,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D11" s="1" t="s">
         <v>83</v>
       </c>
@@ -11283,7 +11287,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>70</v>
       </c>
@@ -11291,7 +11295,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>1</v>
       </c>
@@ -11299,12 +11303,12 @@
         <v>189</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D15" s="6" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>1</v>
       </c>
@@ -11312,7 +11316,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
         <v>71</v>
       </c>
@@ -11320,7 +11324,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>1</v>
       </c>
@@ -11328,17 +11332,17 @@
         <v>191</v>
       </c>
     </row>
-    <row r="58" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D58" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="59" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:6" x14ac:dyDescent="0.2">
       <c r="E59" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="60" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:6" x14ac:dyDescent="0.2">
       <c r="E60" s="1" t="s">
         <v>1</v>
       </c>
@@ -11346,7 +11350,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>1</v>
       </c>
@@ -11354,7 +11358,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="84" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C84" s="6" t="s">
         <v>1</v>
       </c>
@@ -11363,7 +11367,7 @@
       </c>
       <c r="E84" s="6"/>
     </row>
-    <row r="85" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C85" s="6"/>
       <c r="D85" s="6" t="s">
         <v>83</v>
@@ -11372,62 +11376,62 @@
         <v>193</v>
       </c>
     </row>
-    <row r="86" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C86" s="6"/>
       <c r="D86" s="6"/>
       <c r="E86" s="6"/>
     </row>
-    <row r="87" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
       <c r="E87" s="6"/>
     </row>
-    <row r="88" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
       <c r="E88" s="6"/>
     </row>
-    <row r="89" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
       <c r="E89" s="6"/>
     </row>
-    <row r="90" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
       <c r="E90" s="6"/>
     </row>
-    <row r="91" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
       <c r="E91" s="6"/>
     </row>
-    <row r="92" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
       <c r="E92" s="6"/>
     </row>
-    <row r="93" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
       <c r="E93" s="6"/>
     </row>
-    <row r="94" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
       <c r="E94" s="6"/>
     </row>
-    <row r="95" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
       <c r="E95" s="6"/>
     </row>
-    <row r="96" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C96" s="6"/>
       <c r="D96" s="6"/>
       <c r="E96" s="6"/>
     </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B97" s="1" t="s">
         <v>72</v>
       </c>
@@ -11435,7 +11439,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>1</v>
       </c>
@@ -11443,17 +11447,17 @@
         <v>196</v>
       </c>
     </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D112" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="113" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D113" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="123" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C123" s="1" t="s">
         <v>1</v>
       </c>
@@ -11461,7 +11465,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B135" s="1" t="s">
         <v>73</v>
       </c>
@@ -11469,7 +11473,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="136" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C136" s="1" t="s">
         <v>1</v>
       </c>
@@ -11477,12 +11481,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="137" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D137" s="6" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="149" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C149" s="1" t="s">
         <v>1</v>
       </c>
@@ -11490,27 +11494,27 @@
         <v>203</v>
       </c>
     </row>
-    <row r="150" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D150" s="6" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="151" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D151" s="6" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="166" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D166" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="167" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D167" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="168" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D168" s="1" t="s">
         <v>1</v>
       </c>
@@ -11518,7 +11522,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="169" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D169" s="1" t="s">
         <v>1</v>
       </c>
@@ -11526,12 +11530,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="171" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D171" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="172" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D172" s="1" t="s">
         <v>207</v>
       </c>

--- a/0126/個人目標-スキルチェック.xlsx
+++ b/0126/個人目標-スキルチェック.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyama\Desktop\スキルチェック\skillcheck\0126\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\svr88\Desktop\スキルチェック\skillcheck\0126\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3005F7C-9362-4A85-9BCF-F46E2072BDFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED3063D-1915-4ED6-9628-2F4867408F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="2" r:id="rId1"/>
@@ -2084,14 +2084,32 @@
     <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2100,15 +2118,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2120,14 +2129,14 @@
     <xf numFmtId="49" fontId="11" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -2138,14 +2147,23 @@
     <xf numFmtId="49" fontId="11" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2164,24 +2182,6 @@
     </xf>
     <xf numFmtId="49" fontId="11" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -8999,22 +8999,22 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.08984375" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="3.06640625" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="3.08984375" style="1"/>
+    <col min="1" max="16384" width="3.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="22.9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="19.899999999999999" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
@@ -9022,12 +9022,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D5" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
         <v>1</v>
       </c>
@@ -9035,7 +9035,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
         <v>1</v>
       </c>
@@ -9043,7 +9043,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
         <v>1</v>
       </c>
@@ -9051,7 +9051,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D9" s="1" t="s">
         <v>1</v>
       </c>
@@ -9059,7 +9059,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D10" s="1" t="s">
         <v>1</v>
       </c>
@@ -9067,7 +9067,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D11" s="1" t="s">
         <v>1</v>
       </c>
@@ -9075,12 +9075,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="19.899999999999999" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="19.899999999999999" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>1</v>
@@ -9089,22 +9089,22 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="19.899999999999999" x14ac:dyDescent="0.25">
       <c r="B15" s="4"/>
       <c r="D15" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="19.899999999999999" x14ac:dyDescent="0.25">
       <c r="B16" s="4"/>
       <c r="D16" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="20" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6" ht="19.899999999999999" x14ac:dyDescent="0.25">
       <c r="B17" s="4"/>
     </row>
-    <row r="18" spans="2:6" ht="20" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6" ht="19.899999999999999" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>1</v>
@@ -9113,22 +9113,22 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="20" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:6" ht="19.899999999999999" x14ac:dyDescent="0.25">
       <c r="B19" s="4"/>
       <c r="D19" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="20" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:6" ht="19.899999999999999" x14ac:dyDescent="0.25">
       <c r="B20" s="4"/>
       <c r="D20" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="20" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:6" ht="19.899999999999999" x14ac:dyDescent="0.25">
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C22" s="1" t="s">
         <v>1</v>
       </c>
@@ -9136,17 +9136,17 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D23" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="20" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:6" ht="19.899999999999999" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C26" s="1" t="s">
         <v>1</v>
       </c>
@@ -9154,12 +9154,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D27" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D28" s="1" t="s">
         <v>46</v>
       </c>
@@ -9167,12 +9167,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="2:6" ht="20" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:6" ht="19.899999999999999" x14ac:dyDescent="0.25">
       <c r="B30" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C31" s="1" t="s">
         <v>1</v>
       </c>
@@ -9180,12 +9180,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="33" spans="2:4" ht="20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:4" ht="19.899999999999999" x14ac:dyDescent="0.25">
       <c r="B33" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C34" s="1" t="s">
         <v>1</v>
       </c>
@@ -9193,7 +9193,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C35" s="1" t="s">
         <v>1</v>
       </c>
@@ -9201,7 +9201,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C36" s="1" t="s">
         <v>1</v>
       </c>
@@ -9209,7 +9209,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C37" s="1" t="s">
         <v>1</v>
       </c>
@@ -9243,93 +9243,93 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="3" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:43" s="1" customFormat="1" ht="22.9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:43" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:43" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:43" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:43" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:43" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="37" t="s">
+    <row r="5" spans="1:43" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="34" t="s">
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="35"/>
-      <c r="P5" s="36"/>
-    </row>
-    <row r="6" spans="1:43" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="37" t="s">
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="42"/>
+    </row>
+    <row r="6" spans="1:43" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="34" t="s">
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="36"/>
-    </row>
-    <row r="7" spans="1:43" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="37" t="s">
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="42"/>
+    </row>
+    <row r="7" spans="1:43" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="34" t="s">
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="35"/>
-      <c r="P7" s="36"/>
-    </row>
-    <row r="9" spans="1:43" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="42"/>
+    </row>
+    <row r="9" spans="1:43" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>23</v>
       </c>
       <c r="X9" s="8"/>
     </row>
-    <row r="10" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:43" s="1" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.25">
       <c r="C10" s="7" t="s">
         <v>24</v>
       </c>
@@ -9338,158 +9338,158 @@
       </c>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="1:43" s="1" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:43" s="1" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="7"/>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="13" t="s">
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="13" t="s">
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="S11" s="14"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="14"/>
-      <c r="V11" s="14"/>
-      <c r="W11" s="14"/>
-      <c r="X11" s="15"/>
-      <c r="Y11" s="13" t="s">
+      <c r="S11" s="29"/>
+      <c r="T11" s="29"/>
+      <c r="U11" s="29"/>
+      <c r="V11" s="29"/>
+      <c r="W11" s="29"/>
+      <c r="X11" s="30"/>
+      <c r="Y11" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="Z11" s="14"/>
-      <c r="AA11" s="14"/>
-      <c r="AB11" s="14"/>
-      <c r="AC11" s="14"/>
-      <c r="AD11" s="14"/>
-      <c r="AE11" s="14"/>
-      <c r="AF11" s="14"/>
-      <c r="AG11" s="14"/>
-      <c r="AH11" s="14"/>
-      <c r="AI11" s="14"/>
-      <c r="AJ11" s="14"/>
-      <c r="AK11" s="14"/>
-      <c r="AL11" s="14"/>
-      <c r="AM11" s="14"/>
-      <c r="AN11" s="14"/>
-      <c r="AO11" s="14"/>
-      <c r="AP11" s="14"/>
-      <c r="AQ11" s="15"/>
-    </row>
-    <row r="12" spans="1:43" s="1" customFormat="1" ht="18.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="Z11" s="29"/>
+      <c r="AA11" s="29"/>
+      <c r="AB11" s="29"/>
+      <c r="AC11" s="29"/>
+      <c r="AD11" s="29"/>
+      <c r="AE11" s="29"/>
+      <c r="AF11" s="29"/>
+      <c r="AG11" s="29"/>
+      <c r="AH11" s="29"/>
+      <c r="AI11" s="29"/>
+      <c r="AJ11" s="29"/>
+      <c r="AK11" s="29"/>
+      <c r="AL11" s="29"/>
+      <c r="AM11" s="29"/>
+      <c r="AN11" s="29"/>
+      <c r="AO11" s="29"/>
+      <c r="AP11" s="29"/>
+      <c r="AQ11" s="30"/>
+    </row>
+    <row r="12" spans="1:43" s="1" customFormat="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C12" s="7"/>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="28" t="s">
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="28" t="s">
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="33"/>
+      <c r="R12" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="S12" s="29"/>
-      <c r="T12" s="29"/>
-      <c r="U12" s="29"/>
-      <c r="V12" s="29"/>
-      <c r="W12" s="29"/>
-      <c r="X12" s="30"/>
-      <c r="Y12" s="28" t="s">
+      <c r="S12" s="32"/>
+      <c r="T12" s="32"/>
+      <c r="U12" s="32"/>
+      <c r="V12" s="32"/>
+      <c r="W12" s="32"/>
+      <c r="X12" s="33"/>
+      <c r="Y12" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="Z12" s="29"/>
-      <c r="AA12" s="29"/>
-      <c r="AB12" s="29"/>
-      <c r="AC12" s="29"/>
-      <c r="AD12" s="29"/>
-      <c r="AE12" s="29"/>
-      <c r="AF12" s="29"/>
-      <c r="AG12" s="29"/>
-      <c r="AH12" s="29"/>
-      <c r="AI12" s="29"/>
-      <c r="AJ12" s="29"/>
-      <c r="AK12" s="29"/>
-      <c r="AL12" s="29"/>
-      <c r="AM12" s="29"/>
-      <c r="AN12" s="29"/>
-      <c r="AO12" s="29"/>
-      <c r="AP12" s="29"/>
-      <c r="AQ12" s="30"/>
-    </row>
-    <row r="13" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D13" s="31" t="s">
+      <c r="Z12" s="32"/>
+      <c r="AA12" s="32"/>
+      <c r="AB12" s="32"/>
+      <c r="AC12" s="32"/>
+      <c r="AD12" s="32"/>
+      <c r="AE12" s="32"/>
+      <c r="AF12" s="32"/>
+      <c r="AG12" s="32"/>
+      <c r="AH12" s="32"/>
+      <c r="AI12" s="32"/>
+      <c r="AJ12" s="32"/>
+      <c r="AK12" s="32"/>
+      <c r="AL12" s="32"/>
+      <c r="AM12" s="32"/>
+      <c r="AN12" s="32"/>
+      <c r="AO12" s="32"/>
+      <c r="AP12" s="32"/>
+      <c r="AQ12" s="33"/>
+    </row>
+    <row r="13" spans="1:43" s="1" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.25">
+      <c r="D13" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="31" t="s">
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="L13" s="32"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="32"/>
-      <c r="O13" s="32"/>
-      <c r="P13" s="32"/>
-      <c r="Q13" s="33"/>
-      <c r="R13" s="31"/>
-      <c r="S13" s="32"/>
-      <c r="T13" s="32"/>
-      <c r="U13" s="32"/>
-      <c r="V13" s="32"/>
-      <c r="W13" s="32"/>
-      <c r="X13" s="33"/>
-      <c r="Y13" s="31" t="s">
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="20"/>
+      <c r="W13" s="20"/>
+      <c r="X13" s="21"/>
+      <c r="Y13" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="Z13" s="32"/>
-      <c r="AA13" s="32"/>
-      <c r="AB13" s="32"/>
-      <c r="AC13" s="32"/>
-      <c r="AD13" s="32"/>
-      <c r="AE13" s="32"/>
-      <c r="AF13" s="32"/>
-      <c r="AG13" s="32"/>
-      <c r="AH13" s="32"/>
-      <c r="AI13" s="32"/>
-      <c r="AJ13" s="32"/>
-      <c r="AK13" s="32"/>
-      <c r="AL13" s="32"/>
-      <c r="AM13" s="32"/>
-      <c r="AN13" s="32"/>
-      <c r="AO13" s="32"/>
-      <c r="AP13" s="32"/>
-      <c r="AQ13" s="33"/>
-    </row>
-    <row r="14" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:43" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z13" s="20"/>
+      <c r="AA13" s="20"/>
+      <c r="AB13" s="20"/>
+      <c r="AC13" s="20"/>
+      <c r="AD13" s="20"/>
+      <c r="AE13" s="20"/>
+      <c r="AF13" s="20"/>
+      <c r="AG13" s="20"/>
+      <c r="AH13" s="20"/>
+      <c r="AI13" s="20"/>
+      <c r="AJ13" s="20"/>
+      <c r="AK13" s="20"/>
+      <c r="AL13" s="20"/>
+      <c r="AM13" s="20"/>
+      <c r="AN13" s="20"/>
+      <c r="AO13" s="20"/>
+      <c r="AP13" s="20"/>
+      <c r="AQ13" s="21"/>
+    </row>
+    <row r="14" spans="1:43" s="1" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:43" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="7" t="s">
         <v>24</v>
       </c>
@@ -9498,403 +9498,403 @@
       </c>
       <c r="X15" s="8"/>
     </row>
-    <row r="16" spans="1:43" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D16" s="13" t="s">
+    <row r="16" spans="1:43" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="13" t="s">
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="13" t="s">
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="S16" s="14"/>
-      <c r="T16" s="14"/>
-      <c r="U16" s="14"/>
-      <c r="V16" s="14"/>
-      <c r="W16" s="14"/>
-      <c r="X16" s="15"/>
-      <c r="Y16" s="13" t="s">
+      <c r="S16" s="29"/>
+      <c r="T16" s="29"/>
+      <c r="U16" s="29"/>
+      <c r="V16" s="29"/>
+      <c r="W16" s="29"/>
+      <c r="X16" s="30"/>
+      <c r="Y16" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="Z16" s="14"/>
-      <c r="AA16" s="14"/>
-      <c r="AB16" s="14"/>
-      <c r="AC16" s="14"/>
-      <c r="AD16" s="14"/>
-      <c r="AE16" s="14"/>
-      <c r="AF16" s="14"/>
-      <c r="AG16" s="14"/>
-      <c r="AH16" s="14"/>
-      <c r="AI16" s="14"/>
-      <c r="AJ16" s="14"/>
-      <c r="AK16" s="14"/>
-      <c r="AL16" s="14"/>
-      <c r="AM16" s="14"/>
-      <c r="AN16" s="14"/>
-      <c r="AO16" s="14"/>
-      <c r="AP16" s="14"/>
-      <c r="AQ16" s="15"/>
-    </row>
-    <row r="17" spans="3:43" s="1" customFormat="1" ht="18.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="Z16" s="29"/>
+      <c r="AA16" s="29"/>
+      <c r="AB16" s="29"/>
+      <c r="AC16" s="29"/>
+      <c r="AD16" s="29"/>
+      <c r="AE16" s="29"/>
+      <c r="AF16" s="29"/>
+      <c r="AG16" s="29"/>
+      <c r="AH16" s="29"/>
+      <c r="AI16" s="29"/>
+      <c r="AJ16" s="29"/>
+      <c r="AK16" s="29"/>
+      <c r="AL16" s="29"/>
+      <c r="AM16" s="29"/>
+      <c r="AN16" s="29"/>
+      <c r="AO16" s="29"/>
+      <c r="AP16" s="29"/>
+      <c r="AQ16" s="30"/>
+    </row>
+    <row r="17" spans="3:43" s="1" customFormat="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C17" s="7"/>
-      <c r="D17" s="28" t="s">
+      <c r="D17" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="28" t="s">
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="30"/>
-      <c r="R17" s="28" t="s">
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="32"/>
+      <c r="Q17" s="33"/>
+      <c r="R17" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="S17" s="29"/>
-      <c r="T17" s="29"/>
-      <c r="U17" s="29"/>
-      <c r="V17" s="29"/>
-      <c r="W17" s="29"/>
-      <c r="X17" s="30"/>
-      <c r="Y17" s="28" t="s">
+      <c r="S17" s="32"/>
+      <c r="T17" s="32"/>
+      <c r="U17" s="32"/>
+      <c r="V17" s="32"/>
+      <c r="W17" s="32"/>
+      <c r="X17" s="33"/>
+      <c r="Y17" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="Z17" s="29"/>
-      <c r="AA17" s="29"/>
-      <c r="AB17" s="29"/>
-      <c r="AC17" s="29"/>
-      <c r="AD17" s="29"/>
-      <c r="AE17" s="29"/>
-      <c r="AF17" s="29"/>
-      <c r="AG17" s="29"/>
-      <c r="AH17" s="29"/>
-      <c r="AI17" s="29"/>
-      <c r="AJ17" s="29"/>
-      <c r="AK17" s="29"/>
-      <c r="AL17" s="29"/>
-      <c r="AM17" s="29"/>
-      <c r="AN17" s="29"/>
-      <c r="AO17" s="29"/>
-      <c r="AP17" s="29"/>
-      <c r="AQ17" s="30"/>
-    </row>
-    <row r="18" spans="3:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z17" s="32"/>
+      <c r="AA17" s="32"/>
+      <c r="AB17" s="32"/>
+      <c r="AC17" s="32"/>
+      <c r="AD17" s="32"/>
+      <c r="AE17" s="32"/>
+      <c r="AF17" s="32"/>
+      <c r="AG17" s="32"/>
+      <c r="AH17" s="32"/>
+      <c r="AI17" s="32"/>
+      <c r="AJ17" s="32"/>
+      <c r="AK17" s="32"/>
+      <c r="AL17" s="32"/>
+      <c r="AM17" s="32"/>
+      <c r="AN17" s="32"/>
+      <c r="AO17" s="32"/>
+      <c r="AP17" s="32"/>
+      <c r="AQ17" s="33"/>
+    </row>
+    <row r="18" spans="3:43" s="1" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.25">
       <c r="C18" s="7"/>
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="31" t="s">
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="L18" s="32"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="32"/>
-      <c r="O18" s="32"/>
-      <c r="P18" s="32"/>
-      <c r="Q18" s="33"/>
-      <c r="R18" s="31" t="s">
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="S18" s="32"/>
-      <c r="T18" s="32"/>
-      <c r="U18" s="32"/>
-      <c r="V18" s="32"/>
-      <c r="W18" s="32"/>
-      <c r="X18" s="33"/>
-      <c r="Y18" s="31" t="s">
+      <c r="S18" s="20"/>
+      <c r="T18" s="20"/>
+      <c r="U18" s="20"/>
+      <c r="V18" s="20"/>
+      <c r="W18" s="20"/>
+      <c r="X18" s="21"/>
+      <c r="Y18" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="Z18" s="32"/>
-      <c r="AA18" s="32"/>
-      <c r="AB18" s="32"/>
-      <c r="AC18" s="32"/>
-      <c r="AD18" s="32"/>
-      <c r="AE18" s="32"/>
-      <c r="AF18" s="32"/>
-      <c r="AG18" s="32"/>
-      <c r="AH18" s="32"/>
-      <c r="AI18" s="32"/>
-      <c r="AJ18" s="32"/>
-      <c r="AK18" s="32"/>
-      <c r="AL18" s="32"/>
-      <c r="AM18" s="32"/>
-      <c r="AN18" s="32"/>
-      <c r="AO18" s="32"/>
-      <c r="AP18" s="32"/>
-      <c r="AQ18" s="33"/>
-    </row>
-    <row r="19" spans="3:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z18" s="20"/>
+      <c r="AA18" s="20"/>
+      <c r="AB18" s="20"/>
+      <c r="AC18" s="20"/>
+      <c r="AD18" s="20"/>
+      <c r="AE18" s="20"/>
+      <c r="AF18" s="20"/>
+      <c r="AG18" s="20"/>
+      <c r="AH18" s="20"/>
+      <c r="AI18" s="20"/>
+      <c r="AJ18" s="20"/>
+      <c r="AK18" s="20"/>
+      <c r="AL18" s="20"/>
+      <c r="AM18" s="20"/>
+      <c r="AN18" s="20"/>
+      <c r="AO18" s="20"/>
+      <c r="AP18" s="20"/>
+      <c r="AQ18" s="21"/>
+    </row>
+    <row r="19" spans="3:43" s="1" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.25">
       <c r="C19" s="7"/>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="16" t="s">
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="18"/>
-      <c r="R19" s="16"/>
-      <c r="S19" s="17"/>
-      <c r="T19" s="17"/>
-      <c r="U19" s="17"/>
-      <c r="V19" s="17"/>
-      <c r="W19" s="17"/>
-      <c r="X19" s="18"/>
-      <c r="Y19" s="22" t="s">
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="22"/>
+      <c r="S19" s="23"/>
+      <c r="T19" s="23"/>
+      <c r="U19" s="23"/>
+      <c r="V19" s="23"/>
+      <c r="W19" s="23"/>
+      <c r="X19" s="24"/>
+      <c r="Y19" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="Z19" s="23"/>
-      <c r="AA19" s="23"/>
-      <c r="AB19" s="23"/>
-      <c r="AC19" s="23"/>
-      <c r="AD19" s="23"/>
-      <c r="AE19" s="23"/>
-      <c r="AF19" s="23"/>
-      <c r="AG19" s="23"/>
-      <c r="AH19" s="23"/>
-      <c r="AI19" s="23"/>
-      <c r="AJ19" s="23"/>
-      <c r="AK19" s="23"/>
-      <c r="AL19" s="23"/>
-      <c r="AM19" s="23"/>
-      <c r="AN19" s="23"/>
-      <c r="AO19" s="23"/>
-      <c r="AP19" s="23"/>
-      <c r="AQ19" s="24"/>
-    </row>
-    <row r="20" spans="3:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z19" s="26"/>
+      <c r="AA19" s="26"/>
+      <c r="AB19" s="26"/>
+      <c r="AC19" s="26"/>
+      <c r="AD19" s="26"/>
+      <c r="AE19" s="26"/>
+      <c r="AF19" s="26"/>
+      <c r="AG19" s="26"/>
+      <c r="AH19" s="26"/>
+      <c r="AI19" s="26"/>
+      <c r="AJ19" s="26"/>
+      <c r="AK19" s="26"/>
+      <c r="AL19" s="26"/>
+      <c r="AM19" s="26"/>
+      <c r="AN19" s="26"/>
+      <c r="AO19" s="26"/>
+      <c r="AP19" s="26"/>
+      <c r="AQ19" s="27"/>
+    </row>
+    <row r="20" spans="3:43" s="1" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.25">
       <c r="C20" s="7"/>
-      <c r="D20" s="40" t="s">
+      <c r="D20" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="40" t="s">
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="L20" s="41"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="41"/>
-      <c r="O20" s="41"/>
-      <c r="P20" s="41"/>
-      <c r="Q20" s="42"/>
-      <c r="R20" s="40"/>
-      <c r="S20" s="41"/>
-      <c r="T20" s="41"/>
-      <c r="U20" s="41"/>
-      <c r="V20" s="41"/>
-      <c r="W20" s="41"/>
-      <c r="X20" s="42"/>
-      <c r="Y20" s="43" t="s">
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="14"/>
+      <c r="X20" s="15"/>
+      <c r="Y20" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="Z20" s="44"/>
-      <c r="AA20" s="44"/>
-      <c r="AB20" s="44"/>
-      <c r="AC20" s="44"/>
-      <c r="AD20" s="44"/>
-      <c r="AE20" s="44"/>
-      <c r="AF20" s="44"/>
-      <c r="AG20" s="44"/>
-      <c r="AH20" s="44"/>
-      <c r="AI20" s="44"/>
-      <c r="AJ20" s="44"/>
-      <c r="AK20" s="44"/>
-      <c r="AL20" s="44"/>
-      <c r="AM20" s="44"/>
-      <c r="AN20" s="44"/>
-      <c r="AO20" s="44"/>
-      <c r="AP20" s="44"/>
-      <c r="AQ20" s="45"/>
-    </row>
-    <row r="21" spans="3:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z20" s="17"/>
+      <c r="AA20" s="17"/>
+      <c r="AB20" s="17"/>
+      <c r="AC20" s="17"/>
+      <c r="AD20" s="17"/>
+      <c r="AE20" s="17"/>
+      <c r="AF20" s="17"/>
+      <c r="AG20" s="17"/>
+      <c r="AH20" s="17"/>
+      <c r="AI20" s="17"/>
+      <c r="AJ20" s="17"/>
+      <c r="AK20" s="17"/>
+      <c r="AL20" s="17"/>
+      <c r="AM20" s="17"/>
+      <c r="AN20" s="17"/>
+      <c r="AO20" s="17"/>
+      <c r="AP20" s="17"/>
+      <c r="AQ20" s="18"/>
+    </row>
+    <row r="21" spans="3:43" s="1" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.25">
       <c r="C21" s="7"/>
-      <c r="D21" s="40" t="s">
+      <c r="D21" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="40" t="s">
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="L21" s="41"/>
-      <c r="M21" s="41"/>
-      <c r="N21" s="41"/>
-      <c r="O21" s="41"/>
-      <c r="P21" s="41"/>
-      <c r="Q21" s="42"/>
-      <c r="R21" s="40" t="s">
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="S21" s="41"/>
-      <c r="T21" s="41"/>
-      <c r="U21" s="41"/>
-      <c r="V21" s="41"/>
-      <c r="W21" s="41"/>
-      <c r="X21" s="42"/>
-      <c r="Y21" s="43"/>
-      <c r="Z21" s="44"/>
-      <c r="AA21" s="44"/>
-      <c r="AB21" s="44"/>
-      <c r="AC21" s="44"/>
-      <c r="AD21" s="44"/>
-      <c r="AE21" s="44"/>
-      <c r="AF21" s="44"/>
-      <c r="AG21" s="44"/>
-      <c r="AH21" s="44"/>
-      <c r="AI21" s="44"/>
-      <c r="AJ21" s="44"/>
-      <c r="AK21" s="44"/>
-      <c r="AL21" s="44"/>
-      <c r="AM21" s="44"/>
-      <c r="AN21" s="44"/>
-      <c r="AO21" s="44"/>
-      <c r="AP21" s="44"/>
-      <c r="AQ21" s="45"/>
-    </row>
-    <row r="22" spans="3:43" s="1" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="14"/>
+      <c r="V21" s="14"/>
+      <c r="W21" s="14"/>
+      <c r="X21" s="15"/>
+      <c r="Y21" s="16"/>
+      <c r="Z21" s="17"/>
+      <c r="AA21" s="17"/>
+      <c r="AB21" s="17"/>
+      <c r="AC21" s="17"/>
+      <c r="AD21" s="17"/>
+      <c r="AE21" s="17"/>
+      <c r="AF21" s="17"/>
+      <c r="AG21" s="17"/>
+      <c r="AH21" s="17"/>
+      <c r="AI21" s="17"/>
+      <c r="AJ21" s="17"/>
+      <c r="AK21" s="17"/>
+      <c r="AL21" s="17"/>
+      <c r="AM21" s="17"/>
+      <c r="AN21" s="17"/>
+      <c r="AO21" s="17"/>
+      <c r="AP21" s="17"/>
+      <c r="AQ21" s="18"/>
+    </row>
+    <row r="22" spans="3:43" s="1" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="7"/>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="16" t="s">
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="18"/>
-      <c r="R22" s="16"/>
-      <c r="S22" s="17"/>
-      <c r="T22" s="17"/>
-      <c r="U22" s="17"/>
-      <c r="V22" s="17"/>
-      <c r="W22" s="17"/>
-      <c r="X22" s="18"/>
-      <c r="Y22" s="22" t="s">
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="22"/>
+      <c r="S22" s="23"/>
+      <c r="T22" s="23"/>
+      <c r="U22" s="23"/>
+      <c r="V22" s="23"/>
+      <c r="W22" s="23"/>
+      <c r="X22" s="24"/>
+      <c r="Y22" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="Z22" s="23"/>
-      <c r="AA22" s="23"/>
-      <c r="AB22" s="23"/>
-      <c r="AC22" s="23"/>
-      <c r="AD22" s="23"/>
-      <c r="AE22" s="23"/>
-      <c r="AF22" s="23"/>
-      <c r="AG22" s="23"/>
-      <c r="AH22" s="23"/>
-      <c r="AI22" s="23"/>
-      <c r="AJ22" s="23"/>
-      <c r="AK22" s="23"/>
-      <c r="AL22" s="23"/>
-      <c r="AM22" s="23"/>
-      <c r="AN22" s="23"/>
-      <c r="AO22" s="23"/>
-      <c r="AP22" s="23"/>
-      <c r="AQ22" s="24"/>
-    </row>
-    <row r="23" spans="3:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z22" s="26"/>
+      <c r="AA22" s="26"/>
+      <c r="AB22" s="26"/>
+      <c r="AC22" s="26"/>
+      <c r="AD22" s="26"/>
+      <c r="AE22" s="26"/>
+      <c r="AF22" s="26"/>
+      <c r="AG22" s="26"/>
+      <c r="AH22" s="26"/>
+      <c r="AI22" s="26"/>
+      <c r="AJ22" s="26"/>
+      <c r="AK22" s="26"/>
+      <c r="AL22" s="26"/>
+      <c r="AM22" s="26"/>
+      <c r="AN22" s="26"/>
+      <c r="AO22" s="26"/>
+      <c r="AP22" s="26"/>
+      <c r="AQ22" s="27"/>
+    </row>
+    <row r="23" spans="3:43" s="1" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.25">
       <c r="C23" s="7"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="19" t="s">
+      <c r="D23" s="34"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="20"/>
-      <c r="O23" s="20"/>
-      <c r="P23" s="20"/>
-      <c r="Q23" s="21"/>
-      <c r="R23" s="19"/>
-      <c r="S23" s="20"/>
-      <c r="T23" s="20"/>
-      <c r="U23" s="20"/>
-      <c r="V23" s="20"/>
-      <c r="W23" s="20"/>
-      <c r="X23" s="21"/>
-      <c r="Y23" s="25"/>
-      <c r="Z23" s="26"/>
-      <c r="AA23" s="26"/>
-      <c r="AB23" s="26"/>
-      <c r="AC23" s="26"/>
-      <c r="AD23" s="26"/>
-      <c r="AE23" s="26"/>
-      <c r="AF23" s="26"/>
-      <c r="AG23" s="26"/>
-      <c r="AH23" s="26"/>
-      <c r="AI23" s="26"/>
-      <c r="AJ23" s="26"/>
-      <c r="AK23" s="26"/>
-      <c r="AL23" s="26"/>
-      <c r="AM23" s="26"/>
-      <c r="AN23" s="26"/>
-      <c r="AO23" s="26"/>
-      <c r="AP23" s="26"/>
-      <c r="AQ23" s="27"/>
-    </row>
-    <row r="24" spans="3:43" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="35"/>
+      <c r="P23" s="35"/>
+      <c r="Q23" s="36"/>
+      <c r="R23" s="34"/>
+      <c r="S23" s="35"/>
+      <c r="T23" s="35"/>
+      <c r="U23" s="35"/>
+      <c r="V23" s="35"/>
+      <c r="W23" s="35"/>
+      <c r="X23" s="36"/>
+      <c r="Y23" s="37"/>
+      <c r="Z23" s="38"/>
+      <c r="AA23" s="38"/>
+      <c r="AB23" s="38"/>
+      <c r="AC23" s="38"/>
+      <c r="AD23" s="38"/>
+      <c r="AE23" s="38"/>
+      <c r="AF23" s="38"/>
+      <c r="AG23" s="38"/>
+      <c r="AH23" s="38"/>
+      <c r="AI23" s="38"/>
+      <c r="AJ23" s="38"/>
+      <c r="AK23" s="38"/>
+      <c r="AL23" s="38"/>
+      <c r="AM23" s="38"/>
+      <c r="AN23" s="38"/>
+      <c r="AO23" s="38"/>
+      <c r="AP23" s="38"/>
+      <c r="AQ23" s="39"/>
+    </row>
+    <row r="24" spans="3:43" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="X24" s="8"/>
     </row>
-    <row r="25" spans="3:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:43" s="1" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.25">
       <c r="C25" s="7" t="s">
         <v>24</v>
       </c>
@@ -9902,158 +9902,158 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="3:43" s="1" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:43" s="1" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C26" s="7"/>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="13" t="s">
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="15"/>
-      <c r="R26" s="13" t="s">
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="30"/>
+      <c r="R26" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="S26" s="14"/>
-      <c r="T26" s="14"/>
-      <c r="U26" s="14"/>
-      <c r="V26" s="14"/>
-      <c r="W26" s="14"/>
-      <c r="X26" s="15"/>
-      <c r="Y26" s="13" t="s">
+      <c r="S26" s="29"/>
+      <c r="T26" s="29"/>
+      <c r="U26" s="29"/>
+      <c r="V26" s="29"/>
+      <c r="W26" s="29"/>
+      <c r="X26" s="30"/>
+      <c r="Y26" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="Z26" s="14"/>
-      <c r="AA26" s="14"/>
-      <c r="AB26" s="14"/>
-      <c r="AC26" s="14"/>
-      <c r="AD26" s="14"/>
-      <c r="AE26" s="14"/>
-      <c r="AF26" s="14"/>
-      <c r="AG26" s="14"/>
-      <c r="AH26" s="14"/>
-      <c r="AI26" s="14"/>
-      <c r="AJ26" s="14"/>
-      <c r="AK26" s="14"/>
-      <c r="AL26" s="14"/>
-      <c r="AM26" s="14"/>
-      <c r="AN26" s="14"/>
-      <c r="AO26" s="14"/>
-      <c r="AP26" s="14"/>
-      <c r="AQ26" s="15"/>
-    </row>
-    <row r="27" spans="3:43" s="1" customFormat="1" ht="18.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="Z26" s="29"/>
+      <c r="AA26" s="29"/>
+      <c r="AB26" s="29"/>
+      <c r="AC26" s="29"/>
+      <c r="AD26" s="29"/>
+      <c r="AE26" s="29"/>
+      <c r="AF26" s="29"/>
+      <c r="AG26" s="29"/>
+      <c r="AH26" s="29"/>
+      <c r="AI26" s="29"/>
+      <c r="AJ26" s="29"/>
+      <c r="AK26" s="29"/>
+      <c r="AL26" s="29"/>
+      <c r="AM26" s="29"/>
+      <c r="AN26" s="29"/>
+      <c r="AO26" s="29"/>
+      <c r="AP26" s="29"/>
+      <c r="AQ26" s="30"/>
+    </row>
+    <row r="27" spans="3:43" s="1" customFormat="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C27" s="7"/>
-      <c r="D27" s="28" t="s">
+      <c r="D27" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="28" t="s">
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="29"/>
-      <c r="O27" s="29"/>
-      <c r="P27" s="29"/>
-      <c r="Q27" s="30"/>
-      <c r="R27" s="28" t="s">
+      <c r="L27" s="32"/>
+      <c r="M27" s="32"/>
+      <c r="N27" s="32"/>
+      <c r="O27" s="32"/>
+      <c r="P27" s="32"/>
+      <c r="Q27" s="33"/>
+      <c r="R27" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="S27" s="29"/>
-      <c r="T27" s="29"/>
-      <c r="U27" s="29"/>
-      <c r="V27" s="29"/>
-      <c r="W27" s="29"/>
-      <c r="X27" s="30"/>
-      <c r="Y27" s="28" t="s">
+      <c r="S27" s="32"/>
+      <c r="T27" s="32"/>
+      <c r="U27" s="32"/>
+      <c r="V27" s="32"/>
+      <c r="W27" s="32"/>
+      <c r="X27" s="33"/>
+      <c r="Y27" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="Z27" s="29"/>
-      <c r="AA27" s="29"/>
-      <c r="AB27" s="29"/>
-      <c r="AC27" s="29"/>
-      <c r="AD27" s="29"/>
-      <c r="AE27" s="29"/>
-      <c r="AF27" s="29"/>
-      <c r="AG27" s="29"/>
-      <c r="AH27" s="29"/>
-      <c r="AI27" s="29"/>
-      <c r="AJ27" s="29"/>
-      <c r="AK27" s="29"/>
-      <c r="AL27" s="29"/>
-      <c r="AM27" s="29"/>
-      <c r="AN27" s="29"/>
-      <c r="AO27" s="29"/>
-      <c r="AP27" s="29"/>
-      <c r="AQ27" s="30"/>
-    </row>
-    <row r="28" spans="3:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D28" s="31" t="s">
+      <c r="Z27" s="32"/>
+      <c r="AA27" s="32"/>
+      <c r="AB27" s="32"/>
+      <c r="AC27" s="32"/>
+      <c r="AD27" s="32"/>
+      <c r="AE27" s="32"/>
+      <c r="AF27" s="32"/>
+      <c r="AG27" s="32"/>
+      <c r="AH27" s="32"/>
+      <c r="AI27" s="32"/>
+      <c r="AJ27" s="32"/>
+      <c r="AK27" s="32"/>
+      <c r="AL27" s="32"/>
+      <c r="AM27" s="32"/>
+      <c r="AN27" s="32"/>
+      <c r="AO27" s="32"/>
+      <c r="AP27" s="32"/>
+      <c r="AQ27" s="33"/>
+    </row>
+    <row r="28" spans="3:43" s="1" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.25">
+      <c r="D28" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="31" t="s">
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="L28" s="32"/>
-      <c r="M28" s="32"/>
-      <c r="N28" s="32"/>
-      <c r="O28" s="32"/>
-      <c r="P28" s="32"/>
-      <c r="Q28" s="33"/>
-      <c r="R28" s="31"/>
-      <c r="S28" s="32"/>
-      <c r="T28" s="32"/>
-      <c r="U28" s="32"/>
-      <c r="V28" s="32"/>
-      <c r="W28" s="32"/>
-      <c r="X28" s="33"/>
-      <c r="Y28" s="31" t="s">
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="20"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="20"/>
+      <c r="Q28" s="21"/>
+      <c r="R28" s="19"/>
+      <c r="S28" s="20"/>
+      <c r="T28" s="20"/>
+      <c r="U28" s="20"/>
+      <c r="V28" s="20"/>
+      <c r="W28" s="20"/>
+      <c r="X28" s="21"/>
+      <c r="Y28" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="Z28" s="32"/>
-      <c r="AA28" s="32"/>
-      <c r="AB28" s="32"/>
-      <c r="AC28" s="32"/>
-      <c r="AD28" s="32"/>
-      <c r="AE28" s="32"/>
-      <c r="AF28" s="32"/>
-      <c r="AG28" s="32"/>
-      <c r="AH28" s="32"/>
-      <c r="AI28" s="32"/>
-      <c r="AJ28" s="32"/>
-      <c r="AK28" s="32"/>
-      <c r="AL28" s="32"/>
-      <c r="AM28" s="32"/>
-      <c r="AN28" s="32"/>
-      <c r="AO28" s="32"/>
-      <c r="AP28" s="32"/>
-      <c r="AQ28" s="33"/>
-    </row>
-    <row r="29" spans="3:43" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="3:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z28" s="20"/>
+      <c r="AA28" s="20"/>
+      <c r="AB28" s="20"/>
+      <c r="AC28" s="20"/>
+      <c r="AD28" s="20"/>
+      <c r="AE28" s="20"/>
+      <c r="AF28" s="20"/>
+      <c r="AG28" s="20"/>
+      <c r="AH28" s="20"/>
+      <c r="AI28" s="20"/>
+      <c r="AJ28" s="20"/>
+      <c r="AK28" s="20"/>
+      <c r="AL28" s="20"/>
+      <c r="AM28" s="20"/>
+      <c r="AN28" s="20"/>
+      <c r="AO28" s="20"/>
+      <c r="AP28" s="20"/>
+      <c r="AQ28" s="21"/>
+    </row>
+    <row r="29" spans="3:43" s="1" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="3:43" s="1" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.25">
       <c r="C30" s="7" t="s">
         <v>24</v>
       </c>
@@ -10100,475 +10100,405 @@
       <c r="AP30" s="7"/>
       <c r="AQ30" s="7"/>
     </row>
-    <row r="31" spans="3:43" s="1" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:43" s="1" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C31" s="7"/>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="13" t="s">
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="14"/>
-      <c r="O31" s="14"/>
-      <c r="P31" s="14"/>
-      <c r="Q31" s="15"/>
-      <c r="R31" s="13" t="s">
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
+      <c r="O31" s="29"/>
+      <c r="P31" s="29"/>
+      <c r="Q31" s="30"/>
+      <c r="R31" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="S31" s="14"/>
-      <c r="T31" s="14"/>
-      <c r="U31" s="14"/>
-      <c r="V31" s="14"/>
-      <c r="W31" s="14"/>
-      <c r="X31" s="15"/>
-      <c r="Y31" s="13" t="s">
+      <c r="S31" s="29"/>
+      <c r="T31" s="29"/>
+      <c r="U31" s="29"/>
+      <c r="V31" s="29"/>
+      <c r="W31" s="29"/>
+      <c r="X31" s="30"/>
+      <c r="Y31" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="Z31" s="14"/>
-      <c r="AA31" s="14"/>
-      <c r="AB31" s="14"/>
-      <c r="AC31" s="14"/>
-      <c r="AD31" s="14"/>
-      <c r="AE31" s="14"/>
-      <c r="AF31" s="14"/>
-      <c r="AG31" s="14"/>
-      <c r="AH31" s="14"/>
-      <c r="AI31" s="14"/>
-      <c r="AJ31" s="14"/>
-      <c r="AK31" s="14"/>
-      <c r="AL31" s="14"/>
-      <c r="AM31" s="14"/>
-      <c r="AN31" s="14"/>
-      <c r="AO31" s="14"/>
-      <c r="AP31" s="14"/>
-      <c r="AQ31" s="15"/>
-    </row>
-    <row r="32" spans="3:43" s="1" customFormat="1" ht="18.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="Z31" s="29"/>
+      <c r="AA31" s="29"/>
+      <c r="AB31" s="29"/>
+      <c r="AC31" s="29"/>
+      <c r="AD31" s="29"/>
+      <c r="AE31" s="29"/>
+      <c r="AF31" s="29"/>
+      <c r="AG31" s="29"/>
+      <c r="AH31" s="29"/>
+      <c r="AI31" s="29"/>
+      <c r="AJ31" s="29"/>
+      <c r="AK31" s="29"/>
+      <c r="AL31" s="29"/>
+      <c r="AM31" s="29"/>
+      <c r="AN31" s="29"/>
+      <c r="AO31" s="29"/>
+      <c r="AP31" s="29"/>
+      <c r="AQ31" s="30"/>
+    </row>
+    <row r="32" spans="3:43" s="1" customFormat="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C32" s="7"/>
-      <c r="D32" s="28" t="s">
+      <c r="D32" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="28" t="s">
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
-      <c r="O32" s="29"/>
-      <c r="P32" s="29"/>
-      <c r="Q32" s="30"/>
-      <c r="R32" s="28" t="s">
+      <c r="L32" s="32"/>
+      <c r="M32" s="32"/>
+      <c r="N32" s="32"/>
+      <c r="O32" s="32"/>
+      <c r="P32" s="32"/>
+      <c r="Q32" s="33"/>
+      <c r="R32" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="S32" s="29"/>
-      <c r="T32" s="29"/>
-      <c r="U32" s="29"/>
-      <c r="V32" s="29"/>
-      <c r="W32" s="29"/>
-      <c r="X32" s="30"/>
-      <c r="Y32" s="28" t="s">
+      <c r="S32" s="32"/>
+      <c r="T32" s="32"/>
+      <c r="U32" s="32"/>
+      <c r="V32" s="32"/>
+      <c r="W32" s="32"/>
+      <c r="X32" s="33"/>
+      <c r="Y32" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="Z32" s="29"/>
-      <c r="AA32" s="29"/>
-      <c r="AB32" s="29"/>
-      <c r="AC32" s="29"/>
-      <c r="AD32" s="29"/>
-      <c r="AE32" s="29"/>
-      <c r="AF32" s="29"/>
-      <c r="AG32" s="29"/>
-      <c r="AH32" s="29"/>
-      <c r="AI32" s="29"/>
-      <c r="AJ32" s="29"/>
-      <c r="AK32" s="29"/>
-      <c r="AL32" s="29"/>
-      <c r="AM32" s="29"/>
-      <c r="AN32" s="29"/>
-      <c r="AO32" s="29"/>
-      <c r="AP32" s="29"/>
-      <c r="AQ32" s="30"/>
-    </row>
-    <row r="33" spans="3:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z32" s="32"/>
+      <c r="AA32" s="32"/>
+      <c r="AB32" s="32"/>
+      <c r="AC32" s="32"/>
+      <c r="AD32" s="32"/>
+      <c r="AE32" s="32"/>
+      <c r="AF32" s="32"/>
+      <c r="AG32" s="32"/>
+      <c r="AH32" s="32"/>
+      <c r="AI32" s="32"/>
+      <c r="AJ32" s="32"/>
+      <c r="AK32" s="32"/>
+      <c r="AL32" s="32"/>
+      <c r="AM32" s="32"/>
+      <c r="AN32" s="32"/>
+      <c r="AO32" s="32"/>
+      <c r="AP32" s="32"/>
+      <c r="AQ32" s="33"/>
+    </row>
+    <row r="33" spans="3:43" s="1" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.25">
       <c r="C33" s="7"/>
-      <c r="D33" s="31" t="s">
+      <c r="D33" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="31" t="s">
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="L33" s="32"/>
-      <c r="M33" s="32"/>
-      <c r="N33" s="32"/>
-      <c r="O33" s="32"/>
-      <c r="P33" s="32"/>
-      <c r="Q33" s="33"/>
-      <c r="R33" s="31" t="s">
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="20"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="20"/>
+      <c r="Q33" s="21"/>
+      <c r="R33" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="S33" s="32"/>
-      <c r="T33" s="32"/>
-      <c r="U33" s="32"/>
-      <c r="V33" s="32"/>
-      <c r="W33" s="32"/>
-      <c r="X33" s="33"/>
-      <c r="Y33" s="31" t="s">
+      <c r="S33" s="20"/>
+      <c r="T33" s="20"/>
+      <c r="U33" s="20"/>
+      <c r="V33" s="20"/>
+      <c r="W33" s="20"/>
+      <c r="X33" s="21"/>
+      <c r="Y33" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="Z33" s="32"/>
-      <c r="AA33" s="32"/>
-      <c r="AB33" s="32"/>
-      <c r="AC33" s="32"/>
-      <c r="AD33" s="32"/>
-      <c r="AE33" s="32"/>
-      <c r="AF33" s="32"/>
-      <c r="AG33" s="32"/>
-      <c r="AH33" s="32"/>
-      <c r="AI33" s="32"/>
-      <c r="AJ33" s="32"/>
-      <c r="AK33" s="32"/>
-      <c r="AL33" s="32"/>
-      <c r="AM33" s="32"/>
-      <c r="AN33" s="32"/>
-      <c r="AO33" s="32"/>
-      <c r="AP33" s="32"/>
-      <c r="AQ33" s="33"/>
-    </row>
-    <row r="34" spans="3:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z33" s="20"/>
+      <c r="AA33" s="20"/>
+      <c r="AB33" s="20"/>
+      <c r="AC33" s="20"/>
+      <c r="AD33" s="20"/>
+      <c r="AE33" s="20"/>
+      <c r="AF33" s="20"/>
+      <c r="AG33" s="20"/>
+      <c r="AH33" s="20"/>
+      <c r="AI33" s="20"/>
+      <c r="AJ33" s="20"/>
+      <c r="AK33" s="20"/>
+      <c r="AL33" s="20"/>
+      <c r="AM33" s="20"/>
+      <c r="AN33" s="20"/>
+      <c r="AO33" s="20"/>
+      <c r="AP33" s="20"/>
+      <c r="AQ33" s="21"/>
+    </row>
+    <row r="34" spans="3:43" s="1" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.25">
       <c r="C34" s="7"/>
-      <c r="D34" s="16" t="s">
+      <c r="D34" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="40" t="s">
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="L34" s="41"/>
-      <c r="M34" s="41"/>
-      <c r="N34" s="41"/>
-      <c r="O34" s="41"/>
-      <c r="P34" s="41"/>
-      <c r="Q34" s="42"/>
-      <c r="R34" s="16"/>
-      <c r="S34" s="17"/>
-      <c r="T34" s="17"/>
-      <c r="U34" s="17"/>
-      <c r="V34" s="17"/>
-      <c r="W34" s="17"/>
-      <c r="X34" s="18"/>
-      <c r="Y34" s="22" t="s">
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="15"/>
+      <c r="R34" s="22"/>
+      <c r="S34" s="23"/>
+      <c r="T34" s="23"/>
+      <c r="U34" s="23"/>
+      <c r="V34" s="23"/>
+      <c r="W34" s="23"/>
+      <c r="X34" s="24"/>
+      <c r="Y34" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="Z34" s="23"/>
-      <c r="AA34" s="23"/>
-      <c r="AB34" s="23"/>
-      <c r="AC34" s="23"/>
-      <c r="AD34" s="23"/>
-      <c r="AE34" s="23"/>
-      <c r="AF34" s="23"/>
-      <c r="AG34" s="23"/>
-      <c r="AH34" s="23"/>
-      <c r="AI34" s="23"/>
-      <c r="AJ34" s="23"/>
-      <c r="AK34" s="23"/>
-      <c r="AL34" s="23"/>
-      <c r="AM34" s="23"/>
-      <c r="AN34" s="23"/>
-      <c r="AO34" s="23"/>
-      <c r="AP34" s="23"/>
-      <c r="AQ34" s="24"/>
-    </row>
-    <row r="35" spans="3:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z34" s="26"/>
+      <c r="AA34" s="26"/>
+      <c r="AB34" s="26"/>
+      <c r="AC34" s="26"/>
+      <c r="AD34" s="26"/>
+      <c r="AE34" s="26"/>
+      <c r="AF34" s="26"/>
+      <c r="AG34" s="26"/>
+      <c r="AH34" s="26"/>
+      <c r="AI34" s="26"/>
+      <c r="AJ34" s="26"/>
+      <c r="AK34" s="26"/>
+      <c r="AL34" s="26"/>
+      <c r="AM34" s="26"/>
+      <c r="AN34" s="26"/>
+      <c r="AO34" s="26"/>
+      <c r="AP34" s="26"/>
+      <c r="AQ34" s="27"/>
+    </row>
+    <row r="35" spans="3:43" s="1" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.25">
       <c r="C35" s="7"/>
-      <c r="D35" s="40" t="s">
+      <c r="D35" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="41"/>
-      <c r="I35" s="41"/>
-      <c r="J35" s="42"/>
-      <c r="K35" s="40" t="s">
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="L35" s="41"/>
-      <c r="M35" s="41"/>
-      <c r="N35" s="41"/>
-      <c r="O35" s="41"/>
-      <c r="P35" s="41"/>
-      <c r="Q35" s="42"/>
-      <c r="R35" s="40"/>
-      <c r="S35" s="41"/>
-      <c r="T35" s="41"/>
-      <c r="U35" s="41"/>
-      <c r="V35" s="41"/>
-      <c r="W35" s="41"/>
-      <c r="X35" s="42"/>
-      <c r="Y35" s="43" t="s">
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="14"/>
+      <c r="O35" s="14"/>
+      <c r="P35" s="14"/>
+      <c r="Q35" s="15"/>
+      <c r="R35" s="13"/>
+      <c r="S35" s="14"/>
+      <c r="T35" s="14"/>
+      <c r="U35" s="14"/>
+      <c r="V35" s="14"/>
+      <c r="W35" s="14"/>
+      <c r="X35" s="15"/>
+      <c r="Y35" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="Z35" s="44"/>
-      <c r="AA35" s="44"/>
-      <c r="AB35" s="44"/>
-      <c r="AC35" s="44"/>
-      <c r="AD35" s="44"/>
-      <c r="AE35" s="44"/>
-      <c r="AF35" s="44"/>
-      <c r="AG35" s="44"/>
-      <c r="AH35" s="44"/>
-      <c r="AI35" s="44"/>
-      <c r="AJ35" s="44"/>
-      <c r="AK35" s="44"/>
-      <c r="AL35" s="44"/>
-      <c r="AM35" s="44"/>
-      <c r="AN35" s="44"/>
-      <c r="AO35" s="44"/>
-      <c r="AP35" s="44"/>
-      <c r="AQ35" s="45"/>
-    </row>
-    <row r="36" spans="3:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z35" s="17"/>
+      <c r="AA35" s="17"/>
+      <c r="AB35" s="17"/>
+      <c r="AC35" s="17"/>
+      <c r="AD35" s="17"/>
+      <c r="AE35" s="17"/>
+      <c r="AF35" s="17"/>
+      <c r="AG35" s="17"/>
+      <c r="AH35" s="17"/>
+      <c r="AI35" s="17"/>
+      <c r="AJ35" s="17"/>
+      <c r="AK35" s="17"/>
+      <c r="AL35" s="17"/>
+      <c r="AM35" s="17"/>
+      <c r="AN35" s="17"/>
+      <c r="AO35" s="17"/>
+      <c r="AP35" s="17"/>
+      <c r="AQ35" s="18"/>
+    </row>
+    <row r="36" spans="3:43" s="1" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.25">
       <c r="C36" s="7"/>
-      <c r="D36" s="40" t="s">
+      <c r="D36" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="E36" s="41"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="41"/>
-      <c r="H36" s="41"/>
-      <c r="I36" s="41"/>
-      <c r="J36" s="42"/>
-      <c r="K36" s="40" t="s">
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="L36" s="41"/>
-      <c r="M36" s="41"/>
-      <c r="N36" s="41"/>
-      <c r="O36" s="41"/>
-      <c r="P36" s="41"/>
-      <c r="Q36" s="42"/>
-      <c r="R36" s="40" t="s">
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="14"/>
+      <c r="Q36" s="15"/>
+      <c r="R36" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="S36" s="41"/>
-      <c r="T36" s="41"/>
-      <c r="U36" s="41"/>
-      <c r="V36" s="41"/>
-      <c r="W36" s="41"/>
-      <c r="X36" s="42"/>
-      <c r="Y36" s="43" t="s">
+      <c r="S36" s="14"/>
+      <c r="T36" s="14"/>
+      <c r="U36" s="14"/>
+      <c r="V36" s="14"/>
+      <c r="W36" s="14"/>
+      <c r="X36" s="15"/>
+      <c r="Y36" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="Z36" s="44"/>
-      <c r="AA36" s="44"/>
-      <c r="AB36" s="44"/>
-      <c r="AC36" s="44"/>
-      <c r="AD36" s="44"/>
-      <c r="AE36" s="44"/>
-      <c r="AF36" s="44"/>
-      <c r="AG36" s="44"/>
-      <c r="AH36" s="44"/>
-      <c r="AI36" s="44"/>
-      <c r="AJ36" s="44"/>
-      <c r="AK36" s="44"/>
-      <c r="AL36" s="44"/>
-      <c r="AM36" s="44"/>
-      <c r="AN36" s="44"/>
-      <c r="AO36" s="44"/>
-      <c r="AP36" s="44"/>
-      <c r="AQ36" s="45"/>
-    </row>
-    <row r="37" spans="3:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z36" s="17"/>
+      <c r="AA36" s="17"/>
+      <c r="AB36" s="17"/>
+      <c r="AC36" s="17"/>
+      <c r="AD36" s="17"/>
+      <c r="AE36" s="17"/>
+      <c r="AF36" s="17"/>
+      <c r="AG36" s="17"/>
+      <c r="AH36" s="17"/>
+      <c r="AI36" s="17"/>
+      <c r="AJ36" s="17"/>
+      <c r="AK36" s="17"/>
+      <c r="AL36" s="17"/>
+      <c r="AM36" s="17"/>
+      <c r="AN36" s="17"/>
+      <c r="AO36" s="17"/>
+      <c r="AP36" s="17"/>
+      <c r="AQ36" s="18"/>
+    </row>
+    <row r="37" spans="3:43" s="1" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.25">
       <c r="C37" s="7"/>
-      <c r="D37" s="16" t="s">
+      <c r="D37" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="16" t="s">
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="18"/>
-      <c r="R37" s="16"/>
-      <c r="S37" s="17"/>
-      <c r="T37" s="17"/>
-      <c r="U37" s="17"/>
-      <c r="V37" s="17"/>
-      <c r="W37" s="17"/>
-      <c r="X37" s="18"/>
-      <c r="Y37" s="22" t="s">
+      <c r="L37" s="23"/>
+      <c r="M37" s="23"/>
+      <c r="N37" s="23"/>
+      <c r="O37" s="23"/>
+      <c r="P37" s="23"/>
+      <c r="Q37" s="24"/>
+      <c r="R37" s="22"/>
+      <c r="S37" s="23"/>
+      <c r="T37" s="23"/>
+      <c r="U37" s="23"/>
+      <c r="V37" s="23"/>
+      <c r="W37" s="23"/>
+      <c r="X37" s="24"/>
+      <c r="Y37" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="Z37" s="23"/>
-      <c r="AA37" s="23"/>
-      <c r="AB37" s="23"/>
-      <c r="AC37" s="23"/>
-      <c r="AD37" s="23"/>
-      <c r="AE37" s="23"/>
-      <c r="AF37" s="23"/>
-      <c r="AG37" s="23"/>
-      <c r="AH37" s="23"/>
-      <c r="AI37" s="23"/>
-      <c r="AJ37" s="23"/>
-      <c r="AK37" s="23"/>
-      <c r="AL37" s="23"/>
-      <c r="AM37" s="23"/>
-      <c r="AN37" s="23"/>
-      <c r="AO37" s="23"/>
-      <c r="AP37" s="23"/>
-      <c r="AQ37" s="24"/>
-    </row>
-    <row r="38" spans="3:43" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D38" s="19"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="21"/>
-      <c r="K38" s="19" t="s">
+      <c r="Z37" s="26"/>
+      <c r="AA37" s="26"/>
+      <c r="AB37" s="26"/>
+      <c r="AC37" s="26"/>
+      <c r="AD37" s="26"/>
+      <c r="AE37" s="26"/>
+      <c r="AF37" s="26"/>
+      <c r="AG37" s="26"/>
+      <c r="AH37" s="26"/>
+      <c r="AI37" s="26"/>
+      <c r="AJ37" s="26"/>
+      <c r="AK37" s="26"/>
+      <c r="AL37" s="26"/>
+      <c r="AM37" s="26"/>
+      <c r="AN37" s="26"/>
+      <c r="AO37" s="26"/>
+      <c r="AP37" s="26"/>
+      <c r="AQ37" s="27"/>
+    </row>
+    <row r="38" spans="3:43" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D38" s="34"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="L38" s="20"/>
-      <c r="M38" s="20"/>
-      <c r="N38" s="20"/>
-      <c r="O38" s="20"/>
-      <c r="P38" s="20"/>
-      <c r="Q38" s="21"/>
-      <c r="R38" s="19"/>
-      <c r="S38" s="20"/>
-      <c r="T38" s="20"/>
-      <c r="U38" s="20"/>
-      <c r="V38" s="20"/>
-      <c r="W38" s="20"/>
-      <c r="X38" s="21"/>
-      <c r="Y38" s="25" t="s">
+      <c r="L38" s="35"/>
+      <c r="M38" s="35"/>
+      <c r="N38" s="35"/>
+      <c r="O38" s="35"/>
+      <c r="P38" s="35"/>
+      <c r="Q38" s="36"/>
+      <c r="R38" s="34"/>
+      <c r="S38" s="35"/>
+      <c r="T38" s="35"/>
+      <c r="U38" s="35"/>
+      <c r="V38" s="35"/>
+      <c r="W38" s="35"/>
+      <c r="X38" s="36"/>
+      <c r="Y38" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="Z38" s="26"/>
-      <c r="AA38" s="26"/>
-      <c r="AB38" s="26"/>
-      <c r="AC38" s="26"/>
-      <c r="AD38" s="26"/>
-      <c r="AE38" s="26"/>
-      <c r="AF38" s="26"/>
-      <c r="AG38" s="26"/>
-      <c r="AH38" s="26"/>
-      <c r="AI38" s="26"/>
-      <c r="AJ38" s="26"/>
-      <c r="AK38" s="26"/>
-      <c r="AL38" s="26"/>
-      <c r="AM38" s="26"/>
-      <c r="AN38" s="26"/>
-      <c r="AO38" s="26"/>
-      <c r="AP38" s="26"/>
-      <c r="AQ38" s="27"/>
+      <c r="Z38" s="38"/>
+      <c r="AA38" s="38"/>
+      <c r="AB38" s="38"/>
+      <c r="AC38" s="38"/>
+      <c r="AD38" s="38"/>
+      <c r="AE38" s="38"/>
+      <c r="AF38" s="38"/>
+      <c r="AG38" s="38"/>
+      <c r="AH38" s="38"/>
+      <c r="AI38" s="38"/>
+      <c r="AJ38" s="38"/>
+      <c r="AK38" s="38"/>
+      <c r="AL38" s="38"/>
+      <c r="AM38" s="38"/>
+      <c r="AN38" s="38"/>
+      <c r="AO38" s="38"/>
+      <c r="AP38" s="38"/>
+      <c r="AQ38" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="86">
-    <mergeCell ref="D35:J35"/>
-    <mergeCell ref="K35:Q35"/>
-    <mergeCell ref="R35:X35"/>
-    <mergeCell ref="Y35:AQ35"/>
-    <mergeCell ref="D36:J36"/>
-    <mergeCell ref="K36:Q36"/>
-    <mergeCell ref="R36:X36"/>
-    <mergeCell ref="Y36:AQ36"/>
-    <mergeCell ref="D33:J33"/>
-    <mergeCell ref="K33:Q33"/>
-    <mergeCell ref="R33:X33"/>
-    <mergeCell ref="Y33:AQ33"/>
-    <mergeCell ref="D34:J34"/>
-    <mergeCell ref="K34:Q34"/>
-    <mergeCell ref="R34:X34"/>
-    <mergeCell ref="Y34:AQ34"/>
-    <mergeCell ref="D31:J31"/>
-    <mergeCell ref="K31:Q31"/>
-    <mergeCell ref="R31:X31"/>
-    <mergeCell ref="Y31:AQ31"/>
-    <mergeCell ref="D32:J32"/>
-    <mergeCell ref="K32:Q32"/>
-    <mergeCell ref="R32:X32"/>
-    <mergeCell ref="Y32:AQ32"/>
-    <mergeCell ref="D22:J23"/>
-    <mergeCell ref="K22:Q23"/>
-    <mergeCell ref="R22:X23"/>
-    <mergeCell ref="Y22:AQ23"/>
-    <mergeCell ref="D20:J20"/>
-    <mergeCell ref="K20:Q20"/>
-    <mergeCell ref="R20:X20"/>
-    <mergeCell ref="Y20:AQ20"/>
-    <mergeCell ref="D21:J21"/>
-    <mergeCell ref="K21:Q21"/>
-    <mergeCell ref="R21:X21"/>
-    <mergeCell ref="Y21:AQ21"/>
-    <mergeCell ref="D18:J18"/>
-    <mergeCell ref="K18:Q18"/>
-    <mergeCell ref="R18:X18"/>
-    <mergeCell ref="Y18:AQ18"/>
-    <mergeCell ref="D19:J19"/>
-    <mergeCell ref="K19:Q19"/>
-    <mergeCell ref="R19:X19"/>
-    <mergeCell ref="Y19:AQ19"/>
-    <mergeCell ref="D13:J13"/>
-    <mergeCell ref="K13:Q13"/>
-    <mergeCell ref="R13:X13"/>
-    <mergeCell ref="Y13:AQ13"/>
-    <mergeCell ref="D17:J17"/>
-    <mergeCell ref="K17:Q17"/>
-    <mergeCell ref="R17:X17"/>
-    <mergeCell ref="Y17:AQ17"/>
-    <mergeCell ref="D16:J16"/>
-    <mergeCell ref="K16:Q16"/>
-    <mergeCell ref="R16:X16"/>
-    <mergeCell ref="Y16:AQ16"/>
-    <mergeCell ref="D11:J11"/>
-    <mergeCell ref="K11:Q11"/>
-    <mergeCell ref="R11:X11"/>
-    <mergeCell ref="Y11:AQ11"/>
-    <mergeCell ref="D12:J12"/>
-    <mergeCell ref="K12:Q12"/>
-    <mergeCell ref="R12:X12"/>
-    <mergeCell ref="Y12:AQ12"/>
-    <mergeCell ref="J5:P5"/>
-    <mergeCell ref="J6:P6"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="C7:I7"/>
     <mergeCell ref="D26:J26"/>
     <mergeCell ref="K26:Q26"/>
     <mergeCell ref="R26:X26"/>
@@ -10585,6 +10515,76 @@
     <mergeCell ref="K28:Q28"/>
     <mergeCell ref="R28:X28"/>
     <mergeCell ref="Y28:AQ28"/>
+    <mergeCell ref="J5:P5"/>
+    <mergeCell ref="J6:P6"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="R11:X11"/>
+    <mergeCell ref="Y11:AQ11"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="K12:Q12"/>
+    <mergeCell ref="R12:X12"/>
+    <mergeCell ref="Y12:AQ12"/>
+    <mergeCell ref="D13:J13"/>
+    <mergeCell ref="K13:Q13"/>
+    <mergeCell ref="R13:X13"/>
+    <mergeCell ref="Y13:AQ13"/>
+    <mergeCell ref="D17:J17"/>
+    <mergeCell ref="K17:Q17"/>
+    <mergeCell ref="R17:X17"/>
+    <mergeCell ref="Y17:AQ17"/>
+    <mergeCell ref="D16:J16"/>
+    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="R16:X16"/>
+    <mergeCell ref="Y16:AQ16"/>
+    <mergeCell ref="D18:J18"/>
+    <mergeCell ref="K18:Q18"/>
+    <mergeCell ref="R18:X18"/>
+    <mergeCell ref="Y18:AQ18"/>
+    <mergeCell ref="D19:J19"/>
+    <mergeCell ref="K19:Q19"/>
+    <mergeCell ref="R19:X19"/>
+    <mergeCell ref="Y19:AQ19"/>
+    <mergeCell ref="D22:J23"/>
+    <mergeCell ref="K22:Q23"/>
+    <mergeCell ref="R22:X23"/>
+    <mergeCell ref="Y22:AQ23"/>
+    <mergeCell ref="D20:J20"/>
+    <mergeCell ref="K20:Q20"/>
+    <mergeCell ref="R20:X20"/>
+    <mergeCell ref="Y20:AQ20"/>
+    <mergeCell ref="D21:J21"/>
+    <mergeCell ref="K21:Q21"/>
+    <mergeCell ref="R21:X21"/>
+    <mergeCell ref="Y21:AQ21"/>
+    <mergeCell ref="D31:J31"/>
+    <mergeCell ref="K31:Q31"/>
+    <mergeCell ref="R31:X31"/>
+    <mergeCell ref="Y31:AQ31"/>
+    <mergeCell ref="D32:J32"/>
+    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="R32:X32"/>
+    <mergeCell ref="Y32:AQ32"/>
+    <mergeCell ref="D33:J33"/>
+    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="R33:X33"/>
+    <mergeCell ref="Y33:AQ33"/>
+    <mergeCell ref="D34:J34"/>
+    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="R34:X34"/>
+    <mergeCell ref="Y34:AQ34"/>
+    <mergeCell ref="D35:J35"/>
+    <mergeCell ref="K35:Q35"/>
+    <mergeCell ref="R35:X35"/>
+    <mergeCell ref="Y35:AQ35"/>
+    <mergeCell ref="D36:J36"/>
+    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="R36:X36"/>
+    <mergeCell ref="Y36:AQ36"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -10607,353 +10607,353 @@
       <selection activeCell="W94" sqref="W94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="3" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="22.9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="11" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="23" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="24" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="25" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="26" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="11" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="29" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="30" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="31" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="32" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="33" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="34" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
     </row>
-    <row r="35" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="11" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="36" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="37" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="38" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="39" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
     </row>
-    <row r="41" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="11" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="42" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="43" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="44" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="45" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
         <v>137</v>
       </c>
       <c r="U45" s="10"/>
       <c r="V45" s="10"/>
     </row>
-    <row r="46" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="47" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="48" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
     </row>
-    <row r="49" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="11" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="50" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="51" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="52" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="53" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="54" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="55" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="56" spans="2:2" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:2" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="57" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="58" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="59" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
     </row>
-    <row r="60" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="11" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="61" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="62" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="63" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="64" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="65" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="66" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="67" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="68" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="69" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="7" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="70" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="7" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="71" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="7" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="72" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="7" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="73" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="7" t="s">
         <v>161</v>
       </c>
@@ -10981,17 +10981,17 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.08984375" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="3.06640625" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="3.08984375" style="1"/>
+    <col min="1" max="16384" width="3.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="22.9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>83</v>
       </c>
@@ -10999,12 +10999,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
@@ -11012,37 +11012,37 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C17" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C27" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C28" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C29" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D31" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
         <v>3</v>
       </c>
@@ -11050,32 +11050,32 @@
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" s="3"/>
       <c r="C41" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
     </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C51" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="62" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C62" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="63" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C63" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C64" s="1" t="s">
         <v>1</v>
       </c>
@@ -11083,7 +11083,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C65" s="1" t="s">
         <v>1</v>
       </c>
@@ -11091,7 +11091,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B75" s="3" t="s">
         <v>3</v>
       </c>
@@ -11099,17 +11099,17 @@
         <v>66</v>
       </c>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B76" s="3"/>
       <c r="C76" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B87" s="3" t="s">
         <v>3</v>
       </c>
@@ -11117,18 +11117,18 @@
         <v>67</v>
       </c>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B88" s="3"/>
       <c r="C88" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C100" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B113" s="3" t="s">
         <v>3</v>
       </c>
@@ -11136,13 +11136,13 @@
         <v>68</v>
       </c>
     </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B114" s="3"/>
       <c r="C114" s="3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="140" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B140" s="3" t="s">
         <v>3</v>
       </c>
@@ -11150,23 +11150,23 @@
         <v>176</v>
       </c>
     </row>
-    <row r="141" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B141" s="3"/>
       <c r="C141" s="3" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="155" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C155" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="156" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C156" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="157" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C157" s="1" t="s">
         <v>1</v>
       </c>
@@ -11174,7 +11174,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="158" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C158" s="1" t="s">
         <v>1</v>
       </c>
@@ -11182,17 +11182,17 @@
         <v>105</v>
       </c>
     </row>
-    <row r="163" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C163" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="164" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C164" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="165" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C165" s="1" t="s">
         <v>1</v>
       </c>
@@ -11223,21 +11223,21 @@
   </sheetPr>
   <dimension ref="A1:F172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A156" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="AP108" sqref="AP108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.08984375" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="3.06640625" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="3.08984375" style="1"/>
+    <col min="1" max="16384" width="3.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="22.9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>69</v>
       </c>
@@ -11245,7 +11245,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
@@ -11253,12 +11253,12 @@
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D5" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
         <v>1</v>
       </c>
@@ -11266,12 +11266,12 @@
         <v>208</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D8" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
         <v>1</v>
       </c>
@@ -11279,7 +11279,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D11" s="1" t="s">
         <v>83</v>
       </c>
@@ -11287,7 +11287,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>70</v>
       </c>
@@ -11295,7 +11295,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
         <v>1</v>
       </c>
@@ -11303,12 +11303,12 @@
         <v>189</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D15" s="6" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C25" s="1" t="s">
         <v>1</v>
       </c>
@@ -11316,7 +11316,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
         <v>71</v>
       </c>
@@ -11324,7 +11324,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C47" s="1" t="s">
         <v>1</v>
       </c>
@@ -11332,17 +11332,17 @@
         <v>191</v>
       </c>
     </row>
-    <row r="58" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D58" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="59" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E59" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="60" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E60" s="1" t="s">
         <v>1</v>
       </c>
@@ -11350,7 +11350,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C72" s="1" t="s">
         <v>1</v>
       </c>
@@ -11358,7 +11358,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="84" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C84" s="6" t="s">
         <v>1</v>
       </c>
@@ -11367,7 +11367,7 @@
       </c>
       <c r="E84" s="6"/>
     </row>
-    <row r="85" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C85" s="6"/>
       <c r="D85" s="6" t="s">
         <v>83</v>
@@ -11376,62 +11376,62 @@
         <v>193</v>
       </c>
     </row>
-    <row r="86" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C86" s="6"/>
       <c r="D86" s="6"/>
       <c r="E86" s="6"/>
     </row>
-    <row r="87" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
       <c r="E87" s="6"/>
     </row>
-    <row r="88" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
       <c r="E88" s="6"/>
     </row>
-    <row r="89" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
       <c r="E89" s="6"/>
     </row>
-    <row r="90" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
       <c r="E90" s="6"/>
     </row>
-    <row r="91" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
       <c r="E91" s="6"/>
     </row>
-    <row r="92" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
       <c r="E92" s="6"/>
     </row>
-    <row r="93" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
       <c r="E93" s="6"/>
     </row>
-    <row r="94" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
       <c r="E94" s="6"/>
     </row>
-    <row r="95" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
       <c r="E95" s="6"/>
     </row>
-    <row r="96" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C96" s="6"/>
       <c r="D96" s="6"/>
       <c r="E96" s="6"/>
     </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B97" s="1" t="s">
         <v>72</v>
       </c>
@@ -11439,7 +11439,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C98" s="1" t="s">
         <v>1</v>
       </c>
@@ -11447,17 +11447,17 @@
         <v>196</v>
       </c>
     </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D112" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="113" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D113" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="123" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C123" s="1" t="s">
         <v>1</v>
       </c>
@@ -11465,7 +11465,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B135" s="1" t="s">
         <v>73</v>
       </c>
@@ -11473,7 +11473,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="136" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C136" s="1" t="s">
         <v>1</v>
       </c>
@@ -11481,12 +11481,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="137" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D137" s="6" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="149" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C149" s="1" t="s">
         <v>1</v>
       </c>
@@ -11494,27 +11494,27 @@
         <v>203</v>
       </c>
     </row>
-    <row r="150" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D150" s="6" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="151" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D151" s="6" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="166" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D166" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="167" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="167" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D167" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="168" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="168" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D168" s="1" t="s">
         <v>1</v>
       </c>
@@ -11522,7 +11522,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="169" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="169" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D169" s="1" t="s">
         <v>1</v>
       </c>
@@ -11530,12 +11530,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="171" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D171" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="172" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="172" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D172" s="1" t="s">
         <v>207</v>
       </c>
